--- a/rais_dados/analises_excel/feature_selection-certo.xlsx
+++ b/rais_dados/analises_excel/feature_selection-certo.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bolsolui/Documents/personal/MECAI/git/rais_dados/analises_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01E08F3F-4651-F440-899D-EF1163BF7FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70938ED9-2360-F04A-B45B-37E66568C8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29380" windowHeight="18880" xr2:uid="{9454E6DC-84C2-DD47-85A6-89A30C83F1FE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29380" windowHeight="18880" activeTab="2" xr2:uid="{9454E6DC-84C2-DD47-85A6-89A30C83F1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lasso" sheetId="1" r:id="rId1"/>
     <sheet name="RFE" sheetId="2" r:id="rId2"/>
+    <sheet name="chi2 score" sheetId="3" r:id="rId3"/>
+    <sheet name="corr Pearson" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="313">
   <si>
     <t>Feminino</t>
   </si>
@@ -628,13 +630,361 @@
   </si>
   <si>
     <t>Edição integrada à impressão de livros jornais revistas e outras publicações</t>
+  </si>
+  <si>
+    <t>Atividades de vigilância, segurança privada e transporte de valores          </t>
+  </si>
+  <si>
+    <t>0.634086</t>
+  </si>
+  <si>
+    <t>Comércio varejista de combustíveis para veículos automotores                 </t>
+  </si>
+  <si>
+    <t>0.569853</t>
+  </si>
+  <si>
+    <t>Atividades de rádio                                                          </t>
+  </si>
+  <si>
+    <t>0.539947</t>
+  </si>
+  <si>
+    <t>Atividades de televisão                                                      </t>
+  </si>
+  <si>
+    <t>0.539692</t>
+  </si>
+  <si>
+    <t>Atividades de contabilidade, consultoria e auditoria contábil e tributária   </t>
+  </si>
+  <si>
+    <t>0.526105</t>
+  </si>
+  <si>
+    <t>Instituição Financeira                                                       </t>
+  </si>
+  <si>
+    <t>0.511251</t>
+  </si>
+  <si>
+    <t>Comércio varejista de material de construção                                 </t>
+  </si>
+  <si>
+    <t>0.506201</t>
+  </si>
+  <si>
+    <t>Construção de edifícios                                                      </t>
+  </si>
+  <si>
+    <t>0.492875</t>
+  </si>
+  <si>
+    <t>Comércio de veículos automotores                                             </t>
+  </si>
+  <si>
+    <t>0.490042</t>
+  </si>
+  <si>
+    <t>65 OU MAIS                                                                   </t>
+  </si>
+  <si>
+    <t>0.483369</t>
+  </si>
+  <si>
+    <t>Educação profissional de nível técnico e tecnológico           </t>
+  </si>
+  <si>
+    <t>0.636086</t>
+  </si>
+  <si>
+    <t>Comércio Varejista                                             </t>
+  </si>
+  <si>
+    <t>0.461930</t>
+  </si>
+  <si>
+    <t>Estatutário não Efetivo                                        </t>
+  </si>
+  <si>
+    <t>0.444423</t>
+  </si>
+  <si>
+    <t>Administração do estado e da política econômica e social       </t>
+  </si>
+  <si>
+    <t>0.441781</t>
+  </si>
+  <si>
+    <t>25 A 29                                                        </t>
+  </si>
+  <si>
+    <t>0.409167</t>
+  </si>
+  <si>
+    <t>Administração Pública                                          </t>
+  </si>
+  <si>
+    <t>0.386400</t>
+  </si>
+  <si>
+    <t>Comércio varejista de combustíveis para veículos automotores   </t>
+  </si>
+  <si>
+    <t>0.382405</t>
+  </si>
+  <si>
+    <t>18 A 24                                                        </t>
+  </si>
+  <si>
+    <t>0.382278</t>
+  </si>
+  <si>
+    <t>Médio Incompleto                                               </t>
+  </si>
+  <si>
+    <t>0.373490</t>
+  </si>
+  <si>
+    <t>6ª a 9ª Fundamental                                            </t>
+  </si>
+  <si>
+    <t>0.368389</t>
+  </si>
+  <si>
+    <t>Atividades de televisão                                                                                 </t>
+  </si>
+  <si>
+    <t>0.637037</t>
+  </si>
+  <si>
+    <t>Comércio varejista de combustíveis para veículos automotores                                            </t>
+  </si>
+  <si>
+    <t>0.622295</t>
+  </si>
+  <si>
+    <t>Atividades de rádio                                                                                     </t>
+  </si>
+  <si>
+    <t>0.611280</t>
+  </si>
+  <si>
+    <t>Obras de infra-estrutura para energia elétrica, telecomunicações, água, esgoto e transporte por dutos   </t>
+  </si>
+  <si>
+    <t>0.600992</t>
+  </si>
+  <si>
+    <t>Prod. Mineral Não Metálico                                                                              </t>
+  </si>
+  <si>
+    <t>0.570698</t>
+  </si>
+  <si>
+    <t>Extrativa Mineral                                                                                       </t>
+  </si>
+  <si>
+    <t>0.561502</t>
+  </si>
+  <si>
+    <t>Serviço Utilidade Pública                                                                               </t>
+  </si>
+  <si>
+    <t>0.560459</t>
+  </si>
+  <si>
+    <t>Hotéis e similares                                                                                      </t>
+  </si>
+  <si>
+    <t>0.555001</t>
+  </si>
+  <si>
+    <t>Coleta de resíduos                                                                                      </t>
+  </si>
+  <si>
+    <t>0.552078</t>
+  </si>
+  <si>
+    <t>Comércio de veículos automotores                                                                        </t>
+  </si>
+  <si>
+    <t>0.532180</t>
+  </si>
+  <si>
+    <t>0.544961</t>
+  </si>
+  <si>
+    <t>0.492646</t>
+  </si>
+  <si>
+    <t>0.449688</t>
+  </si>
+  <si>
+    <t>Até 5ª Incompleto                                              </t>
+  </si>
+  <si>
+    <t>0.402442</t>
+  </si>
+  <si>
+    <t>0.399707</t>
+  </si>
+  <si>
+    <t>0.396614</t>
+  </si>
+  <si>
+    <t>0.392889</t>
+  </si>
+  <si>
+    <t>Seguridade social obrigatória                                  </t>
+  </si>
+  <si>
+    <t>0.386001</t>
+  </si>
+  <si>
+    <t>0.383519</t>
+  </si>
+  <si>
+    <t>0.379591</t>
+  </si>
+  <si>
+    <t>Comércio varejista de combustíveis para veículos automotores                                          </t>
+  </si>
+  <si>
+    <t>Madeira e Mobiliário                                                                                  </t>
+  </si>
+  <si>
+    <t>Prod. Mineral Não Metálico                                                                            </t>
+  </si>
+  <si>
+    <t>Hotéis e similares                                                                                    </t>
+  </si>
+  <si>
+    <t>Serviço Utilidade Pública                                                                             </t>
+  </si>
+  <si>
+    <t>Analfabeto                                                                                            </t>
+  </si>
+  <si>
+    <t>Obras de infra-estrutura para energia elétrica, telecomunicações, água, esgoto e transporte por dutos </t>
+  </si>
+  <si>
+    <t>Coleta de resíduos                                                                                    </t>
+  </si>
+  <si>
+    <t>Fabricação de outros produtos alimentícios                                                            </t>
+  </si>
+  <si>
+    <t>Comércio atacadista não-especializado                                                                 </t>
+  </si>
+  <si>
+    <t>Administração do estado e da política econômica e social </t>
+  </si>
+  <si>
+    <t>6ª a 9ª Fundamental                                       </t>
+  </si>
+  <si>
+    <t>Até 5ª Incompleto                                         </t>
+  </si>
+  <si>
+    <t>30 A 39                                                   </t>
+  </si>
+  <si>
+    <t>Seguridade social obrigatória                             </t>
+  </si>
+  <si>
+    <t>25 A 29                                                   </t>
+  </si>
+  <si>
+    <t>Administração Pública                                     </t>
+  </si>
+  <si>
+    <t>Médio Completo                                            </t>
+  </si>
+  <si>
+    <t>Comércio Varejista                                        </t>
+  </si>
+  <si>
+    <t>50 A 64                                                   </t>
+  </si>
+  <si>
+    <t>feminino</t>
+  </si>
+  <si>
+    <t>Ultimas faixas masculino</t>
+  </si>
+  <si>
+    <t>Aqui</t>
+  </si>
+  <si>
+    <t>corr pearson</t>
+  </si>
+  <si>
+    <t>educação profissional de nível técnico e tecnológico           </t>
+  </si>
+  <si>
+    <t>Hotéis e similares                                                         </t>
+  </si>
+  <si>
+    <t>Atividades de serviços de complementação diagnóstica e terapêutica         </t>
+  </si>
+  <si>
+    <t>Comércio varejista de material de construção                               </t>
+  </si>
+  <si>
+    <t>Comércio de peças e acessórios para veículos automotores                   </t>
+  </si>
+  <si>
+    <t>Outras atividades de serviços pessoais                                     </t>
+  </si>
+  <si>
+    <t>CLT U/ PF Ind                                                              </t>
+  </si>
+  <si>
+    <t>Comércio varejista de artigos culturais, recreativos e esportivos          </t>
+  </si>
+  <si>
+    <t>Comércio de veículos automotores                                           </t>
+  </si>
+  <si>
+    <t>Atividades de contabilidade, consultoria e auditoria contábil e tributária  </t>
+  </si>
+  <si>
+    <t>Instituição Financeira                                                      </t>
+  </si>
+  <si>
+    <t>Administração Pública                                    </t>
+  </si>
+  <si>
+    <t>Seguridade social obrigatória                            </t>
+  </si>
+  <si>
+    <t>Estatutário                                              </t>
+  </si>
+  <si>
+    <t>Superior Completo                                        </t>
+  </si>
+  <si>
+    <t>Comércio Varejista                                       </t>
+  </si>
+  <si>
+    <t>25 A 29                                                  </t>
+  </si>
+  <si>
+    <t>Estatutário não Efetivo                                  </t>
+  </si>
+  <si>
+    <t>18 A 24                                                  </t>
+  </si>
+  <si>
+    <t>Educação profissional de nível técnico e tecnológico     </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -655,8 +1005,27 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC1C1C1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFECECEC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,7 +1040,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFE97132"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,12 +1063,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,6 +1090,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2374900</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5816600</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>130125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2" descr="Output image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92F3644-DB51-8BC6-EDCF-F412A0019E60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2374900" y="21590000"/>
+          <a:ext cx="3441700" cy="2771725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1030,1031 +1477,927 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8247BA-D7D1-D048-812E-0E47195A2B76}">
   <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="77.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10.83203125" style="9"/>
+    <col min="7" max="7" width="14.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="9" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="9" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="9" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="A37" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="G38" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G39" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G40" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G41" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G42" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G43" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G44" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G45" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G46" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G47" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G48" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G49" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G50" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G51" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G52" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G53" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G54" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G55" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G56" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G57" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G58" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G59" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G60" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G61" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G62" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G63" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G64" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G65" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G66" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G67" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G68" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G69" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G70" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G71" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G72" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G73" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G74" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G38" t="s">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>63</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="G87" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="G91" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="G92" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G52" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>42</v>
-      </c>
-      <c r="G53" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>43</v>
-      </c>
-      <c r="G54" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>44</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="B98"/>
+    </row>
+    <row r="99" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>45</v>
-      </c>
-      <c r="G56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>46</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="B99" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>47</v>
-      </c>
-      <c r="G60" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>48</v>
-      </c>
-      <c r="G62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>49</v>
-      </c>
-      <c r="G63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G68" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G72" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G73" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>62</v>
-      </c>
-      <c r="G75" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>62</v>
-      </c>
-      <c r="G76" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>62</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>62</v>
-      </c>
-      <c r="G79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>62</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>62</v>
-      </c>
-      <c r="G81" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>62</v>
-      </c>
-      <c r="G82" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>62</v>
-      </c>
-      <c r="G83" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>62</v>
-      </c>
-      <c r="G84" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>62</v>
-      </c>
-      <c r="G85" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>62</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>62</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>62</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>62</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>62</v>
-      </c>
-      <c r="G90" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>62</v>
-      </c>
-      <c r="G91" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>62</v>
-      </c>
-      <c r="G92" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="A114" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="A115" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="A116" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="A117" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="A118" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="A119" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="A120" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="A121" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="A122" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="A123" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="A124" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="A125" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="A126" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="A127" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="A128" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="A129" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="A130" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="A131" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="A132" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="A133" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="A134" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="A135" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="A136" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="A137" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="A138" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="A139" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="A140" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="A141" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="A142" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="A143" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="A144" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="A145" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="A146" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="A147" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="A148" s="9" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2062,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D05229-4A52-7945-93C8-0F574B3B51B4}">
   <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2545,6 +2888,693 @@
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C833C57-52CE-E242-A4C3-C5BFF4C7BFD7}">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="95.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="127.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3">
+        <v>14436.217083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4">
+        <v>12400.439636999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5">
+        <v>12278.772688999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6">
+        <v>11900.767119</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="N6" s="4">
+        <v>15298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7">
+        <v>10424.347292</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="N7" s="4">
+        <v>14092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8">
+        <v>10411.918857000001</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="N8" s="4">
+        <v>12147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9">
+        <v>10307.908298</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="N9" s="5">
+        <v>11712.293573000001</v>
+      </c>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10">
+        <v>10119.816408000001</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="N10" s="5">
+        <v>11358.663466</v>
+      </c>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11">
+        <v>9761.5748540000004</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="N11" s="5">
+        <v>11358.598545999999</v>
+      </c>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12">
+        <v>9730.9352550000003</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="N12" s="5">
+        <v>11301.686496</v>
+      </c>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="N13" s="5">
+        <v>11247.647730000001</v>
+      </c>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M14" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="N14" s="5">
+        <v>11220.063558</v>
+      </c>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M15" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="N15" s="5">
+        <v>11161.79117</v>
+      </c>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B20">
+        <v>8736.7565830000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21">
+        <v>8333.4139369999994</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22">
+        <v>7398.8316080000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B23">
+        <v>7014.4939590000004</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N23">
+        <v>12453.075263000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B24">
+        <v>6109.5896309999998</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="N24">
+        <v>5338.4457030000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25">
+        <v>4936.7015650000003</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="N25">
+        <v>4749.1071860000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B26">
+        <v>4332.1722259999997</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="N26">
+        <v>4285.5939340000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B27">
+        <v>4208.8746000000001</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="N27">
+        <v>4259.4547789999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B28">
+        <v>3861.2624259999998</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N28">
+        <v>4189.2137560000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B29">
+        <v>3610.694634</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="N29">
+        <v>4146.2261170000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M30" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="N30">
+        <v>4035.2616010000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="M31" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="N31">
+        <v>3977.1431130000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="M32" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="N32">
+        <v>3822.4178240000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0607CF3-B2A5-AA4D-AAF7-522B01F63C16}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="107.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="118.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/rais_dados/analises_excel/feature_selection-certo.xlsx
+++ b/rais_dados/analises_excel/feature_selection-certo.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bolsolui/Documents/personal/MECAI/git/rais_dados/analises_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70938ED9-2360-F04A-B45B-37E66568C8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44355794-9EA0-F049-B5DA-DA88078A83B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29380" windowHeight="18880" activeTab="2" xr2:uid="{9454E6DC-84C2-DD47-85A6-89A30C83F1FE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29380" windowHeight="18880" xr2:uid="{9454E6DC-84C2-DD47-85A6-89A30C83F1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lasso" sheetId="1" r:id="rId1"/>
-    <sheet name="RFE" sheetId="2" r:id="rId2"/>
-    <sheet name="chi2 score" sheetId="3" r:id="rId3"/>
-    <sheet name="corr Pearson" sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="5" r:id="rId2"/>
+    <sheet name="decision tree" sheetId="6" r:id="rId3"/>
+    <sheet name="RFE" sheetId="2" r:id="rId4"/>
+    <sheet name="chi2 score" sheetId="3" r:id="rId5"/>
+    <sheet name="corr Pearson" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="609">
   <si>
     <t>Feminino</t>
   </si>
@@ -978,13 +980,901 @@
   </si>
   <si>
     <t>Educação profissional de nível técnico e tecnológico     </t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Comércio varejista de produtos alimentícios, bebidas e fumo</t>
+  </si>
+  <si>
+    <t>Edição integrada à impressão de livros, jornais, revistas e outras publicações</t>
+  </si>
+  <si>
+    <t>Atividades de contabilidade, consultoria e auditoria contábil e tributária</t>
+  </si>
+  <si>
+    <t>Atividades de organizações associativas patronais, empresariais e profissionais</t>
+  </si>
+  <si>
+    <t>sexo_cod</t>
+  </si>
+  <si>
+    <t>Atividades de profissionais da área de saúde, exceto médicos e odontólogos</t>
+  </si>
+  <si>
+    <t>Obras de infra-estrutura para energia elétrica, telecomunicações, água, esgoto e transporte por dutos</t>
+  </si>
+  <si>
+    <t>Moagem, fabricação de produtos amiláceos e de alimentos para animais</t>
+  </si>
+  <si>
+    <t>Comércio atacadista especializado em produtos alimentícios, bebidas e fumo</t>
+  </si>
+  <si>
+    <t>Comércio varejista de produtos farmacêuticos, perfumaria e cosméticos e artigos médicos, ópticos e ortopédicos</t>
+  </si>
+  <si>
+    <t>Atividades de vigilância, segurança privada e transporte de valores</t>
+  </si>
+  <si>
+    <t>Mulher ultimas faixas</t>
+  </si>
+  <si>
+    <t>Mulher primeiras faixas</t>
+  </si>
+  <si>
+    <t>Homens ultimas faixas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homens primeiras faixas </t>
+  </si>
+  <si>
+    <t>Variavel</t>
+  </si>
+  <si>
+    <t>Coeficientes mais altos e positivos indicam a prob de estarem nas faixas mais altas e coeficientes negativos indicam o contrario</t>
+  </si>
+  <si>
+    <t>Variável</t>
+  </si>
+  <si>
+    <t>VIF</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>Produção e distribuição de combustíveis gasosos por redes urbanas</t>
+  </si>
+  <si>
+    <t>Diretor</t>
+  </si>
+  <si>
+    <t>Banco Central</t>
+  </si>
+  <si>
+    <t>Fabricação de produtos químicos inorgânicos</t>
+  </si>
+  <si>
+    <t>Fabricação de biocombustíveis</t>
+  </si>
+  <si>
+    <t>Atividades de organização de eventos, exceto culturais e esportivos</t>
+  </si>
+  <si>
+    <t>Serviços de escritório e apoio administrativo</t>
+  </si>
+  <si>
+    <t>Atividades paisagísticas</t>
+  </si>
+  <si>
+    <t>Atividades de investigação particular</t>
+  </si>
+  <si>
+    <t>Atividades de apoio à educação</t>
+  </si>
+  <si>
+    <t>Produção de lavouras temporárias</t>
+  </si>
+  <si>
+    <t>Reparação e manutenção de objetos e equipamentos pessoais e domésticos</t>
+  </si>
+  <si>
+    <t>Reparação e manutenção de equipamentos de informática e comunicação</t>
+  </si>
+  <si>
+    <t>Atividades de recreação e lazer</t>
+  </si>
+  <si>
+    <t>Atividades de exploração de jogos de azar e apostas</t>
+  </si>
+  <si>
+    <t>Atividades ligadas ao patrimônio cultural e ambiental</t>
+  </si>
+  <si>
+    <t>Atividades artísticas, criativas e de espetáculos</t>
+  </si>
+  <si>
+    <t>Atividades de assistência social prestadas em residências coletivas e particulares</t>
+  </si>
+  <si>
+    <t>Atividades de assistência psicossocial e à saúde a portadores de distúrbios psíquicos, deficiência mental e dependência química</t>
+  </si>
+  <si>
+    <t>Atividades de assistência a idosos, deficientes físicos, imunodeprimidos e convalescentes, e de infra-est e apoio a pac prest em res col e part</t>
+  </si>
+  <si>
+    <t>Atividades de atenção ambulatorial executadas por médicos e odontólogos</t>
+  </si>
+  <si>
+    <t>Serviços móveis de atendimento a urgências e de remoção de pacientes</t>
+  </si>
+  <si>
+    <t>Atividades de monitoramento de sistemas de segurança</t>
+  </si>
+  <si>
+    <t>Agências de viagens e operadores turísticos</t>
+  </si>
+  <si>
+    <t>Serviços de reservas e outros serviços de turismo não especificados anteriormente</t>
+  </si>
+  <si>
+    <t>Atividades de sociedades de participação</t>
+  </si>
+  <si>
+    <t>Atividades auxiliares dos seguros, da previdência complementar e dos planos de saúde</t>
+  </si>
+  <si>
+    <t>Atividades auxiliares dos serviços financeiros</t>
+  </si>
+  <si>
+    <t>Previdência complementar</t>
+  </si>
+  <si>
+    <t>Resseguros</t>
+  </si>
+  <si>
+    <t>Seguros-saúde</t>
+  </si>
+  <si>
+    <t>Seguros de vida e não-vida</t>
+  </si>
+  <si>
+    <t>Atividades de serviços financeiros não especificadas anteriormente</t>
+  </si>
+  <si>
+    <t>Fundos de investimento</t>
+  </si>
+  <si>
+    <t>Sociedades de capitalização</t>
+  </si>
+  <si>
+    <t>Serviços domésticos</t>
+  </si>
+  <si>
+    <t>Arrendamento mercantil</t>
+  </si>
+  <si>
+    <t>Intermediação não-monetária - outros instrumentos de captação</t>
+  </si>
+  <si>
+    <t>Outras atividades de prestação de serviços de informação</t>
+  </si>
+  <si>
+    <t>Tratamento de dados, hospedagem na internet e outras atividades relacionadas</t>
+  </si>
+  <si>
+    <t>Atividades dos serviços de tecnologia da informação</t>
+  </si>
+  <si>
+    <t>Outras atividades de telecomunicações</t>
+  </si>
+  <si>
+    <t>Operadoras de televisão por assinatura</t>
+  </si>
+  <si>
+    <t>Telecomunicações por satélite</t>
+  </si>
+  <si>
+    <t>Atividades de administração de fundos por contrato ou comissão</t>
+  </si>
+  <si>
+    <t>Atividades imobiliárias de imóveis próprios</t>
+  </si>
+  <si>
+    <t>Atividades imobiliárias por contrato ou comissão</t>
+  </si>
+  <si>
+    <t>Atividades jurídicas</t>
+  </si>
+  <si>
+    <t>Fornecimento e gestão de recursos humanos para terceiros</t>
+  </si>
+  <si>
+    <t>Locação de mão-de-obra temporária</t>
+  </si>
+  <si>
+    <t>Gestão de ativos intangíveis não-financeiros</t>
+  </si>
+  <si>
+    <t>Aluguel de máquinas e equipamentos sem operador</t>
+  </si>
+  <si>
+    <t>Aluguel de objetos pessoais e domésticos</t>
+  </si>
+  <si>
+    <t>Atividades veterinárias</t>
+  </si>
+  <si>
+    <t>Atividades profissionais, científicas e técnicas não especificadas anteriormente</t>
+  </si>
+  <si>
+    <t>Atividades fotográficas e similares</t>
+  </si>
+  <si>
+    <t>Design e decoração de interiores</t>
+  </si>
+  <si>
+    <t>Pesquisas de mercado e de opinião pública</t>
+  </si>
+  <si>
+    <t>Publicidade</t>
+  </si>
+  <si>
+    <t>Pesquisa e desenvolvimento experimental em ciências sociais e humanas</t>
+  </si>
+  <si>
+    <t>Pesquisa e desenvolvimento experimental em ciências físicas e naturais</t>
+  </si>
+  <si>
+    <t>Testes e análises técnicas</t>
+  </si>
+  <si>
+    <t>Serviços de arquitetura e engenharia e atividades técnicas relacionadas</t>
+  </si>
+  <si>
+    <t>Atividades de consultoria em gestão empresarial</t>
+  </si>
+  <si>
+    <t>Sedes de empresas e unidades administrativas locais</t>
+  </si>
+  <si>
+    <t>Organismos internacionais e outras instituições extraterritoriais</t>
+  </si>
+  <si>
+    <t>capital_campo_grande___ms</t>
+  </si>
+  <si>
+    <t>capital_boa_vista___rr</t>
+  </si>
+  <si>
+    <t>capital_belo_horizonte___mg</t>
+  </si>
+  <si>
+    <t>capital_belem___pa</t>
+  </si>
+  <si>
+    <t>capital_aracaju___se</t>
+  </si>
+  <si>
+    <t>total_pessoas</t>
+  </si>
+  <si>
+    <t>10 A 14</t>
+  </si>
+  <si>
+    <t>5ª Completo Fundamental</t>
+  </si>
+  <si>
+    <t>capital_brasilia___df</t>
+  </si>
+  <si>
+    <t>capital_cuiaba___mt</t>
+  </si>
+  <si>
+    <t>Analfabeto</t>
+  </si>
+  <si>
+    <t>capital_curitiba___pr</t>
+  </si>
+  <si>
+    <t>capital_vitoria___es</t>
+  </si>
+  <si>
+    <t>capital_terezina___pi</t>
+  </si>
+  <si>
+    <t>capital_sao_paulo___sp</t>
+  </si>
+  <si>
+    <t>capital_sao_luiz___ma</t>
+  </si>
+  <si>
+    <t>capital_salvador___ba</t>
+  </si>
+  <si>
+    <t>capital_rio_de_janeiro___rj</t>
+  </si>
+  <si>
+    <t>capital_rio_branco___ac</t>
+  </si>
+  <si>
+    <t>capital_recife___pe</t>
+  </si>
+  <si>
+    <t>capital_porto_velho___ro</t>
+  </si>
+  <si>
+    <t>capital_porto_alegre___rs</t>
+  </si>
+  <si>
+    <t>capital_palmas___to</t>
+  </si>
+  <si>
+    <t>capital_natal___rn</t>
+  </si>
+  <si>
+    <t>capital_manaus___am</t>
+  </si>
+  <si>
+    <t>capital_maceio___al</t>
+  </si>
+  <si>
+    <t>capital_macapa___ap</t>
+  </si>
+  <si>
+    <t>capital_joao_pessoa___pb</t>
+  </si>
+  <si>
+    <t>capital_goiania___go</t>
+  </si>
+  <si>
+    <t>capital_fortaleza___ce</t>
+  </si>
+  <si>
+    <t>capital_florianopolis___sc</t>
+  </si>
+  <si>
+    <t>Contrat Lei Municipal</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>Serviço Utilidade Pública</t>
+  </si>
+  <si>
+    <t>Indústria Calçados</t>
+  </si>
+  <si>
+    <t>Borracha, Fumo, Couros</t>
+  </si>
+  <si>
+    <t>Material de Transporte</t>
+  </si>
+  <si>
+    <t>Elétrico e Comunic</t>
+  </si>
+  <si>
+    <t>Indústria Mecânica</t>
+  </si>
+  <si>
+    <t>Indústria Metalúrgica</t>
+  </si>
+  <si>
+    <t>Telecomunicações por fio</t>
+  </si>
+  <si>
+    <t>Fabricação de veículos militares de combate</t>
+  </si>
+  <si>
+    <t>Contrat TMP Determinado</t>
+  </si>
+  <si>
+    <t>Contrat Prazo Determinado</t>
+  </si>
+  <si>
+    <t>CLT R/ PF Determinado</t>
+  </si>
+  <si>
+    <t>CLT R/ PJ Determinado</t>
+  </si>
+  <si>
+    <t>CLT U/ PF Determinado</t>
+  </si>
+  <si>
+    <t>Temporário</t>
+  </si>
+  <si>
+    <t>CLT R/ PF Ind</t>
+  </si>
+  <si>
+    <t>CLT R/ PJ Ind</t>
+  </si>
+  <si>
+    <t>Médicos Odontológicos Vet</t>
+  </si>
+  <si>
+    <t>Telecomunicações sem fio</t>
+  </si>
+  <si>
+    <t>Atividades de rádio</t>
+  </si>
+  <si>
+    <t>Atividades de televisão</t>
+  </si>
+  <si>
+    <t>Fabricação de sabões, detergentes, produtos de limpeza, cosméticos, produtos de perfumaria e de higiene pessoal</t>
+  </si>
+  <si>
+    <t>Fabricação de artefatos de concreto, cimento, fibrocimento, gesso e materiais semelhantes</t>
+  </si>
+  <si>
+    <t>Fabricação de cimento</t>
+  </si>
+  <si>
+    <t>Fabricação de vidro e de produtos do vidro</t>
+  </si>
+  <si>
+    <t>Fabricação de produtos de material plástico</t>
+  </si>
+  <si>
+    <t>Fabricação de produtos de borracha</t>
+  </si>
+  <si>
+    <t>Fabricação de produtos farmoquímicos</t>
+  </si>
+  <si>
+    <t>Fabricação de produtos e preparados químicos diversos</t>
+  </si>
+  <si>
+    <t>Fabricação de tintas, vernizes, esmaltes, lacas e produtos afins</t>
+  </si>
+  <si>
+    <t>Fabricação de defensivos agrícolas e desinfestantes domissanitários</t>
+  </si>
+  <si>
+    <t>Fabricação de papel, cartolina e papel-cartão</t>
+  </si>
+  <si>
+    <t>Fabricação de fibras artificiais e sintéticas</t>
+  </si>
+  <si>
+    <t>Fabricação de resinas e elastômeros</t>
+  </si>
+  <si>
+    <t>Fabricação de produtos químicos orgânicos</t>
+  </si>
+  <si>
+    <t>Fabricação de produtos derivados do petróleo</t>
+  </si>
+  <si>
+    <t>Coquerias</t>
+  </si>
+  <si>
+    <t>Reprodução de materiais gravados em qualquer suporte</t>
+  </si>
+  <si>
+    <t>Serviços de pré-impressão e acabamentos gráficos</t>
+  </si>
+  <si>
+    <t>Atividade de impressão</t>
+  </si>
+  <si>
+    <t>Fabricação de produtos diversos de papel, cartolina, papel-cartão e papelão ondulado</t>
+  </si>
+  <si>
+    <t>Fabricação de produtos cerâmicos</t>
+  </si>
+  <si>
+    <t>Aparelhamento de pedras e fabricação de outros produtos de minerais não-metálicos</t>
+  </si>
+  <si>
+    <t>Produção de ferro-gusa e de ferroligas</t>
+  </si>
+  <si>
+    <t>Siderurgia</t>
+  </si>
+  <si>
+    <t>Fabricação de pilhas, baterias e acumuladores elétricos</t>
+  </si>
+  <si>
+    <t>Fabricação de geradores, transformadores e motores elétricos</t>
+  </si>
+  <si>
+    <t>Fabricação de mídias virgens, magnéticas e ópticas</t>
+  </si>
+  <si>
+    <t>Fabricação de equipamentos e instrumentos ópticos, fotográficos e cinematográficos</t>
+  </si>
+  <si>
+    <t>Fabricação de aparelhos eletromédicos e eletroterapêuticos e equipamentos de irradiação</t>
+  </si>
+  <si>
+    <t>Fabricação de aparelhos e instrumentos de medida, teste e controle</t>
+  </si>
+  <si>
+    <t>Fabricação de aparelhos de recepção, reprodução, gravação e amplificação de áudio e vídeo</t>
+  </si>
+  <si>
+    <t>Fabricação de equipamentos de comunicação</t>
+  </si>
+  <si>
+    <t>Fabricação de equipamentos de informática e periféricos</t>
+  </si>
+  <si>
+    <t>Fabricação de componentes eletrônicos</t>
+  </si>
+  <si>
+    <t>Fabricação de produtos de metal não especificados anteriormente</t>
+  </si>
+  <si>
+    <t>Fabricação de equipamento bélico pesado, armas de fogo e munições</t>
+  </si>
+  <si>
+    <t>Fabricação de artigos de cutelaria, de serralheria e ferramentas</t>
+  </si>
+  <si>
+    <t>Forjaria, estamparia, metalurgia do pó e serviços de tratamento de metais</t>
+  </si>
+  <si>
+    <t>Fabricação de tanques, reservatórios metálicos e caldeiras</t>
+  </si>
+  <si>
+    <t>Fabricação de estruturas metálicas e obras de caldeiraria pesada</t>
+  </si>
+  <si>
+    <t>Fundição</t>
+  </si>
+  <si>
+    <t>Metalurgia dos metais não-ferrosos</t>
+  </si>
+  <si>
+    <t>Produção de tubos de aço, exceto tubos sem costura</t>
+  </si>
+  <si>
+    <t>Fabricação de embalagens de papel, cartolina, papel-cartão e papelão ondulado</t>
+  </si>
+  <si>
+    <t>Fabricação de celulose e outras pastas para a fabricação de papel</t>
+  </si>
+  <si>
+    <t>Horticultura e floricultura</t>
+  </si>
+  <si>
+    <t>Extração de carvão mineral</t>
+  </si>
+  <si>
+    <t>Preservação do pescado e fabricação de produtos do pescado</t>
+  </si>
+  <si>
+    <t>Abate e fabricação de produtos de carne</t>
+  </si>
+  <si>
+    <t>Atividades de apoio à extração de minerais, exceto petróleo e gás natural</t>
+  </si>
+  <si>
+    <t>Atividades de apoio à extração de petróleo e gás natural</t>
+  </si>
+  <si>
+    <t>Extração de outros minerais não-metálicos</t>
+  </si>
+  <si>
+    <t>Extração de pedra, areia e argila</t>
+  </si>
+  <si>
+    <t>Extração de minerais metálicos não-ferrosos</t>
+  </si>
+  <si>
+    <t>Extração de minério de ferro</t>
+  </si>
+  <si>
+    <t>Extração de petróleo e gás natural</t>
+  </si>
+  <si>
+    <t>Aqüicultura</t>
+  </si>
+  <si>
+    <t>Fabricação de produtos de madeira, cortiça e material trançado, exceto móveis</t>
+  </si>
+  <si>
+    <t>Pesca</t>
+  </si>
+  <si>
+    <t>Atividades de apoio à produção florestal</t>
+  </si>
+  <si>
+    <t>Produção florestal - florestas nativas</t>
+  </si>
+  <si>
+    <t>Produção florestal - florestas plantadas</t>
+  </si>
+  <si>
+    <t>Caça e serviços relacionados</t>
+  </si>
+  <si>
+    <t>Atividades de apoio à agricultura e à pecuária</t>
+  </si>
+  <si>
+    <t>Pecuária</t>
+  </si>
+  <si>
+    <t>Produção de sementes e mudas certificadas</t>
+  </si>
+  <si>
+    <t>Produção de lavouras permanentes</t>
+  </si>
+  <si>
+    <t>Fabricação de conservas de frutas, legumes e outros vegetais</t>
+  </si>
+  <si>
+    <t>Fabricação de óleos e gorduras vegetais e animais</t>
+  </si>
+  <si>
+    <t>Laticínios</t>
+  </si>
+  <si>
+    <t>Fabricação de partes para calçados, de qualquer material</t>
+  </si>
+  <si>
+    <t>Fabricação de calçados</t>
+  </si>
+  <si>
+    <t>Fabricação de artigos para viagem e de artefatos diversos de couro</t>
+  </si>
+  <si>
+    <t>Curtimento e outras preparações de couro</t>
+  </si>
+  <si>
+    <t>Fabricação de artigos de malharia e tricotagem</t>
+  </si>
+  <si>
+    <t>Fabricação de artefatos têxteis, exceto vestuário</t>
+  </si>
+  <si>
+    <t>Acabamentos em fios, tecidos e artefatos têxteis</t>
+  </si>
+  <si>
+    <t>Fabricação de tecidos de malha</t>
+  </si>
+  <si>
+    <t>Tecelagem, exceto malha</t>
+  </si>
+  <si>
+    <t>Preparação e fiação de fibras têxteis</t>
+  </si>
+  <si>
+    <t>Fabricação de produtos do fumo</t>
+  </si>
+  <si>
+    <t>Processamento industrial do fumo</t>
+  </si>
+  <si>
+    <t>Fabricação de bebidas alcoólicas</t>
+  </si>
+  <si>
+    <t>Fabricação de outros produtos alimentícios</t>
+  </si>
+  <si>
+    <t>Torrefação e moagem de café</t>
+  </si>
+  <si>
+    <t>Fabricação e refino de açúcar</t>
+  </si>
+  <si>
+    <t>Fabricação de equipamentos para distribuição e controle de energia elétrica</t>
+  </si>
+  <si>
+    <t>Fabricação de lâmpadas e outros equipamentos de iluminação</t>
+  </si>
+  <si>
+    <t>Fabricação de eletrodomésticos</t>
+  </si>
+  <si>
+    <t>Transporte dutoviário</t>
+  </si>
+  <si>
+    <t>Transporte ferroviário e metroferroviário</t>
+  </si>
+  <si>
+    <t>Comércio varejista de artigos culturais, recreativos e esportivos</t>
+  </si>
+  <si>
+    <t>Fabricação de equipamentos e aparelhos elétricos não especificados anteriormente</t>
+  </si>
+  <si>
+    <t>Comércio atacadista não-especializado</t>
+  </si>
+  <si>
+    <t>Comércio atacadista de madeira, ferragens, ferramentas, material elétrico e material de construção</t>
+  </si>
+  <si>
+    <t>Comércio atacadista de máquinas, aparelhos e equipamentos, exceto de tecnologias de informação e comunicação</t>
+  </si>
+  <si>
+    <t>Comércio atacadista de equipamentos e produtos de tecnologias de informação e comunicação</t>
+  </si>
+  <si>
+    <t>Comércio atacadista de matérias-primas agrícolas e animais vivos</t>
+  </si>
+  <si>
+    <t>Trens turísticos, teleféricos e similares</t>
+  </si>
+  <si>
+    <t>Transporte marítimo de cabotagem e longo curso</t>
+  </si>
+  <si>
+    <t>Transporte por navegação interior</t>
+  </si>
+  <si>
+    <t>Navegação de apoio</t>
+  </si>
+  <si>
+    <t>Atividades de gravação de som e de edição de música</t>
+  </si>
+  <si>
+    <t>Atividades cinematográficas, produção de vídeos e de programas de televisão</t>
+  </si>
+  <si>
+    <t>Edição de livros, jornais, revistas e outras atividades de edição</t>
+  </si>
+  <si>
+    <t>Serviços de catering, bufê e outros serviços de comida preparada</t>
+  </si>
+  <si>
+    <t>Outros tipos de alojamento não especificados anteriormente</t>
+  </si>
+  <si>
+    <t>Atividades de malote e de entrega</t>
+  </si>
+  <si>
+    <t>Atividades de Correio</t>
+  </si>
+  <si>
+    <t>Atividades relacionadas à organização do transporte de carga</t>
+  </si>
+  <si>
+    <t>Atividades auxiliares dos transportes terrestres</t>
+  </si>
+  <si>
+    <t>Armazenamento, carga e descarga</t>
+  </si>
+  <si>
+    <t>Transporte espacial</t>
+  </si>
+  <si>
+    <t>Transporte aéreo de carga</t>
+  </si>
+  <si>
+    <t>Transporte aéreo de passageiros</t>
+  </si>
+  <si>
+    <t>Outros transportes aquaviários</t>
+  </si>
+  <si>
+    <t>Representantes comerciais e agentes do comércio, exceto de veículos automotores e motocicletas</t>
+  </si>
+  <si>
+    <t>Comércio, manutenção e reparação de motocicletas, peças e acessórios</t>
+  </si>
+  <si>
+    <t>Fabricação de instrumentos e materiais para uso médico e odontológico e de artigos ópticos</t>
+  </si>
+  <si>
+    <t>Fabricação de artefatos para pesca e esporte</t>
+  </si>
+  <si>
+    <t>Fabricação de instrumentos musicais</t>
+  </si>
+  <si>
+    <t>Fabricação de artigos de joalheria, bijuteria e semelhantes</t>
+  </si>
+  <si>
+    <t>Fabricação de móveis</t>
+  </si>
+  <si>
+    <t>Fabricação de equipamentos de transporte não especificados anteriormente</t>
+  </si>
+  <si>
+    <t>Fabricação de aeronaves</t>
+  </si>
+  <si>
+    <t>Fabricação de veículos ferroviários</t>
+  </si>
+  <si>
+    <t>Construção de embarcações</t>
+  </si>
+  <si>
+    <t>Recondicionamento e recuperação de motores para veículos automotores</t>
+  </si>
+  <si>
+    <t>Fabricação de peças e acessórios para veículos automotores</t>
+  </si>
+  <si>
+    <t>Fabricação de cabines, carrocerias e reboques para veículos automotores</t>
+  </si>
+  <si>
+    <t>Fabricação de caminhões e ônibus</t>
+  </si>
+  <si>
+    <t>Fabricação de automóveis, camionetas e utilitários</t>
+  </si>
+  <si>
+    <t>Fabricação de máquinas e equipamentos de uso industrial específico</t>
+  </si>
+  <si>
+    <t>Fabricação de máquinas e equipamentos de uso na extração mineral e na construção</t>
+  </si>
+  <si>
+    <t>Fabricação de máquinas-ferramenta</t>
+  </si>
+  <si>
+    <t>Fabricação de tratores e de máquinas e equipamentos para a agricultura e pecuária</t>
+  </si>
+  <si>
+    <t>Fabricação de máquinas e equipamentos de uso geral</t>
+  </si>
+  <si>
+    <t>Fabricação de motores, bombas, compressores e equipamentos de transmissão</t>
+  </si>
+  <si>
+    <t>Fabricação de brinquedos e jogos recreativos</t>
+  </si>
+  <si>
+    <t>Fabricação de produtos diversos</t>
+  </si>
+  <si>
+    <t>Manutenção e reparação de máquinas e equipamentos</t>
+  </si>
+  <si>
+    <t>Outros serviços especializados para construção</t>
+  </si>
+  <si>
+    <t>Instalações elétricas, hidráulicas e outras instalações em construções</t>
+  </si>
+  <si>
+    <t>Demolição e preparação do terreno</t>
+  </si>
+  <si>
+    <t>Construção de outras obras de infra-estrutura</t>
+  </si>
+  <si>
+    <t>Construção de rodovias, ferrovias, obras urbanas e obras de arte especiais</t>
+  </si>
+  <si>
+    <t>Descontaminação e outros serviços de gestão de resíduos</t>
+  </si>
+  <si>
+    <t>Recuperação de materiais</t>
+  </si>
+  <si>
+    <t>Tratamento e disposição de resíduos</t>
+  </si>
+  <si>
+    <t>Esgoto e atividades relacionadas</t>
+  </si>
+  <si>
+    <t>Captação, tratamento e distribuição de água</t>
+  </si>
+  <si>
+    <t>Produção e distribuição de vapor, água quente e ar condicionado</t>
+  </si>
+  <si>
+    <t>Instalação de máquinas e equipamentos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1024,6 +1914,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1051,7 +1956,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1059,11 +1964,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1075,6 +1995,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,8 +2030,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5816600</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>130125</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>460325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1475,10 +2401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8247BA-D7D1-D048-812E-0E47195A2B76}">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G75"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1486,7 +2412,8 @@
     <col min="1" max="1" width="77.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="10.83203125" style="9"/>
     <col min="7" max="7" width="14.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="9"/>
+    <col min="8" max="8" width="8.6640625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2131,18 +3058,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>47</v>
       </c>
@@ -2150,249 +3077,2669 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G102" s="11"/>
+      <c r="H102" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K102" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="L102" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G103" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H103" s="12">
+        <v>1.3981E-2</v>
+      </c>
+      <c r="I103" s="9" t="str">
+        <f>VLOOKUP(G103,$A$77:$A$113,1,0)</f>
+        <v>Estatutário</v>
+      </c>
+      <c r="J103" s="9" t="e">
+        <f>VLOOKUP(G103,$A$3:$A$36,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K103" s="9" t="e">
+        <f>VLOOKUP(G103,$G$79:$G$92,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L103" s="9" t="str">
+        <f>VLOOKUP(G103,$G$3:$G$75,1,0)</f>
+        <v>Estatutário</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G104" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H104" s="12">
+        <v>1.3854999999999999E-2</v>
+      </c>
+      <c r="I104" s="9" t="str">
+        <f t="shared" ref="I104:I167" si="0">VLOOKUP(G104,$A$77:$A$113,1,0)</f>
+        <v>Superior Completo</v>
+      </c>
+      <c r="J104" s="9" t="e">
+        <f t="shared" ref="J104:J167" si="1">VLOOKUP(G104,$A$3:$A$36,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K104" s="9" t="e">
+        <f t="shared" ref="K104:K167" si="2">VLOOKUP(G104,$G$79:$G$92,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L104" s="9" t="e">
+        <f t="shared" ref="L104:L167" si="3">VLOOKUP(G104,$G$3:$G$75,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G105" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H105" s="12">
+        <v>7.9419999999999994E-3</v>
+      </c>
+      <c r="I105" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Administração Pública</v>
+      </c>
+      <c r="J105" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K105" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L105" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Administração Pública</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G106" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="12">
+        <v>5.9849999999999999E-3</v>
+      </c>
+      <c r="I106" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Serviços coletivos prestados pela administração pública</v>
+      </c>
+      <c r="J106" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Serviços coletivos prestados pela administração pública</v>
+      </c>
+      <c r="K106" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L106" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Serviços coletivos prestados pela administração pública</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G107" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H107" s="12">
+        <v>2.993E-3</v>
+      </c>
+      <c r="I107" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Administração do estado e da política econômica e social</v>
+      </c>
+      <c r="J107" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K107" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L107" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G108" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" s="12">
+        <v>2.941E-3</v>
+      </c>
+      <c r="I108" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Estatutário não Efetivo</v>
+      </c>
+      <c r="J108" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Estatutário não Efetivo</v>
+      </c>
+      <c r="K108" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Estatutário não Efetivo</v>
+      </c>
+      <c r="L108" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Estatutário não Efetivo</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G109" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H109" s="12">
+        <v>2.7569999999999999E-3</v>
+      </c>
+      <c r="I109" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>40 A 49</v>
+      </c>
+      <c r="J109" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K109" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L109" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>40 A 49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G110" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="12">
+        <v>1.505E-3</v>
+      </c>
+      <c r="I110" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Educação superior</v>
+      </c>
+      <c r="J110" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Educação superior</v>
+      </c>
+      <c r="K110" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Educação superior</v>
+      </c>
+      <c r="L110" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G111" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H111" s="12">
+        <v>1.2650000000000001E-3</v>
+      </c>
+      <c r="I111" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J111" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K111" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Geração, transmissão e distribuição de energia elétrica</v>
+      </c>
+      <c r="L111" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G112" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H112" s="12">
+        <v>1.2110000000000001E-3</v>
+      </c>
+      <c r="I112" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Intermediação monetária - depósitos à vista</v>
+      </c>
+      <c r="J112" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K112" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L112" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G113" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H113" s="12">
+        <v>9.2299999999999999E-4</v>
+      </c>
+      <c r="I113" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Instituição Financeira</v>
+      </c>
+      <c r="J113" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K113" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Instituição Financeira</v>
+      </c>
+      <c r="L113" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G114" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" s="12">
+        <v>7.76E-4</v>
+      </c>
+      <c r="I114" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J114" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Atividades de atenção à saúde humana não especificadas anteriormente</v>
+      </c>
+      <c r="K114" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L114" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G115" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H115" s="12">
+        <v>7.1199999999999996E-4</v>
+      </c>
+      <c r="I115" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J115" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K115" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L115" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>50 A 64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G116" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H116" s="12">
+        <v>6.2E-4</v>
+      </c>
+      <c r="I116" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Mestrado</v>
+      </c>
+      <c r="J116" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K116" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L116" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G117" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H117" s="12">
+        <v>5.6499999999999996E-4</v>
+      </c>
+      <c r="I117" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Doutorado</v>
+      </c>
+      <c r="J117" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K117" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L117" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G118" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H118" s="12">
+        <v>4.4900000000000002E-4</v>
+      </c>
+      <c r="I118" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Seguridade social obrigatória</v>
+      </c>
+      <c r="J118" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K118" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L118" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G119" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H119" s="12">
+        <v>4.06E-4</v>
+      </c>
+      <c r="I119" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J119" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K119" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L119" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Indústria Química</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G120" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="H120" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I120" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J120" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K120" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L120" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G121" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H121" s="12">
+        <v>1.7200000000000001E-4</v>
+      </c>
+      <c r="I121" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J121" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K121" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L121" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Outras atividades de serviços prestados principalmente às empresas</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G122" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H122" s="12">
+        <v>1.6899999999999999E-4</v>
+      </c>
+      <c r="I122" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Extrativa Mineral</v>
+      </c>
+      <c r="J122" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K122" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L122" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G123" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="12">
+        <v>1.54E-4</v>
+      </c>
+      <c r="I123" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J123" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Atividades de teleatendimento</v>
+      </c>
+      <c r="K123" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L123" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Atividades de teleatendimento</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G124" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H124" s="12">
+        <v>1.4899999999999999E-4</v>
+      </c>
+      <c r="I124" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J124" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K124" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L124" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Outras atividades de serviços pessoais</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G125" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125" s="12">
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="I125" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Fabricação de produtos farmacêuticos</v>
+      </c>
+      <c r="J125" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K125" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L125" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G126" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H126" s="12">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="I126" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J126" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K126" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L126" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Manutenção e reparação de veículos automotores</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G127" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H127" s="12">
+        <v>8.2999999999999998E-5</v>
+      </c>
+      <c r="I127" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Educação profissional de nível técnico e tecnológico</v>
+      </c>
+      <c r="J127" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K127" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Educação profissional de nível técnico e tecnológico</v>
+      </c>
+      <c r="L127" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G128" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H128" s="12">
+        <v>6.3E-5</v>
+      </c>
+      <c r="I128" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J128" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K128" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L128" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Obras de acabamento</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G129" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H129" s="12">
+        <v>5.8E-5</v>
+      </c>
+      <c r="I129" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J129" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K129" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L129" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Comércio atacadista especializado em outros produtos</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G130" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H130" s="12">
+        <v>5.1999999999999997E-5</v>
+      </c>
+      <c r="I130" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J130" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K130" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L130" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Atividades auxiliares dos transportes aéreos</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G131" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H131" s="12">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="I131" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J131" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K131" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L131" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Seleção e agenciamento de mão-de-obra</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G132" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H132" s="12">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="I132" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J132" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K132" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L132" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Confecção de artigos do vestuário e acessórios</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G133" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H133" s="12">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="I133" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J133" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K133" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L133" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Madeira e Mobiliário</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G134" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H134" s="12">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="I134" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J134" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K134" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L134" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Locação de meios de transporte sem condutor</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G135" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H135" s="12">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I135" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J135" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K135" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L135" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Atividades auxiliares dos transportes aquaviários</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G136" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H136" s="12">
+        <v>-3.0000000000000001E-6</v>
+      </c>
+      <c r="I136" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J136" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K136" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L136" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Desdobramento de madeira</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G137" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H137" s="12">
+        <v>-5.0000000000000004E-6</v>
+      </c>
+      <c r="I137" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J137" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K137" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L137" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Comércio atacadista de produtos de consumo não-alimentar</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G138" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="H138" s="12">
+        <v>-2.0999999999999999E-5</v>
+      </c>
+      <c r="I138" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J138" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K138" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L138" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G139" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H139" s="12">
+        <v>-2.6999999999999999E-5</v>
+      </c>
+      <c r="I139" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Atividades de apoio à gestão de saúde</v>
+      </c>
+      <c r="J139" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K139" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L139" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G140" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H140" s="12">
+        <v>-3.8999999999999999E-5</v>
+      </c>
+      <c r="I140" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J140" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K140" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L140" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Incorporação de empreendimentos imobiliários</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G141" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H141" s="12">
+        <v>-4.1E-5</v>
+      </c>
+      <c r="I141" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J141" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K141" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L141" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Transporte rodoviário de carga</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G142" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="H142" s="12">
+        <v>-4.8999999999999998E-5</v>
+      </c>
+      <c r="I142" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J142" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K142" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L142" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G143" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H143" s="12">
+        <v>-5.7000000000000003E-5</v>
+      </c>
+      <c r="I143" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J143" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Comércio de peças e acessórios para veículos automotores</v>
+      </c>
+      <c r="K143" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L143" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Comércio de peças e acessórios para veículos automotores</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G144" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H144" s="12">
+        <v>-6.0999999999999999E-5</v>
+      </c>
+      <c r="I144" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J144" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K144" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L144" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Prod. Mineral Não Metálico</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G145" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H145" s="12">
+        <v>-7.2999999999999999E-5</v>
+      </c>
+      <c r="I145" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J145" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K145" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L145" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Contrat Lei Estadual</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G146" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="H146" s="12">
+        <v>-7.3999999999999996E-5</v>
+      </c>
+      <c r="I146" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J146" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K146" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L146" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G147" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H147" s="12">
+        <v>-7.4999999999999993E-5</v>
+      </c>
+      <c r="I147" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J147" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K147" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L147" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Coleta de resíduos</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>62</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H148" s="12">
+        <v>-1.01E-4</v>
+      </c>
+      <c r="I148" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J148" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K148" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L148" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>CLT U/ PF Ind</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G149" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="H149" s="12">
+        <v>-1.02E-4</v>
+      </c>
+      <c r="I149" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J149" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K149" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L149" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+      <c r="G150" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="H150" s="12">
+        <v>-1.1E-4</v>
+      </c>
+      <c r="I150" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J150" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K150" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L150" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="105" x14ac:dyDescent="0.2">
+      <c r="G151" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="H151" s="12">
+        <v>-1.2400000000000001E-4</v>
+      </c>
+      <c r="I151" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J151" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K151" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L151" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="G152" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H152" s="12">
+        <v>-1.2899999999999999E-4</v>
+      </c>
+      <c r="I152" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J152" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K152" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L152" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Serviços combinados para apoio a edifícios</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+      <c r="G153" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="H153" s="12">
+        <v>-1.3100000000000001E-4</v>
+      </c>
+      <c r="I153" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J153" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K153" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L153" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G154" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H154" s="12">
+        <v>-1.3300000000000001E-4</v>
+      </c>
+      <c r="I154" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J154" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K154" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L154" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Papel e Gráf</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G155" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H155" s="12">
+        <v>-1.37E-4</v>
+      </c>
+      <c r="I155" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J155" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K155" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L155" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Indústria Têxtil</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="G156" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H156" s="12">
+        <v>-1.4999999999999999E-4</v>
+      </c>
+      <c r="I156" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J156" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Comércio varejista de combustíveis para veículos automotores</v>
+      </c>
+      <c r="K156" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L156" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Comércio varejista de combustíveis para veículos automotores</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="G157" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H157" s="12">
+        <v>-1.7699999999999999E-4</v>
+      </c>
+      <c r="I157" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J157" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K157" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L157" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Fabricação de bebidas não-alcoólicas</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G158" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H158" s="12">
+        <v>-1.8599999999999999E-4</v>
+      </c>
+      <c r="I158" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J158" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K158" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L158" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>CLT U/ PJ Determinado</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G159" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H159" s="12">
+        <v>-1.95E-4</v>
+      </c>
+      <c r="I159" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J159" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K159" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L159" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Agricultura</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+      <c r="G160" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" s="12">
+        <v>-2.2100000000000001E-4</v>
+      </c>
+      <c r="I160" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J160" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Atividades de serviços de complementação diagnóstica e terapêutica</v>
+      </c>
+      <c r="K160" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L160" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="7:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="G161" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H161" s="12">
+        <v>-2.2499999999999999E-4</v>
+      </c>
+      <c r="I161" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J161" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Comércio de veículos automotores</v>
+      </c>
+      <c r="K161" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L161" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Comércio de veículos automotores</v>
+      </c>
+    </row>
+    <row r="162" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G162" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H162" s="12">
+        <v>-2.41E-4</v>
+      </c>
+      <c r="I162" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J162" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K162" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Até 5ª Incompleto</v>
+      </c>
+      <c r="L162" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G163" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H163" s="12">
+        <v>-2.4899999999999998E-4</v>
+      </c>
+      <c r="I163" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J163" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Planos de saúde</v>
+      </c>
+      <c r="K163" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L163" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G164" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" s="12">
+        <v>-2.5399999999999999E-4</v>
+      </c>
+      <c r="I164" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J164" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Hotéis e similares</v>
+      </c>
+      <c r="K164" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L164" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Hotéis e similares</v>
+      </c>
+    </row>
+    <row r="165" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G165" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H165" s="12">
+        <v>-2.5999999999999998E-4</v>
+      </c>
+      <c r="I165" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J165" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K165" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L165" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Avulso</v>
+      </c>
+    </row>
+    <row r="166" spans="7:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="G166" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" s="12">
+        <v>-2.6800000000000001E-4</v>
+      </c>
+      <c r="I166" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J166" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Atividades de organizações sindicais</v>
+      </c>
+      <c r="K166" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L166" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="7:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="G167" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H167" s="12">
+        <v>-3.1300000000000002E-4</v>
+      </c>
+      <c r="I167" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J167" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Comércio varejista de material de construção</v>
+      </c>
+      <c r="K167" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L167" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Comércio varejista de material de construção</v>
+      </c>
+    </row>
+    <row r="168" spans="7:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="G168" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H168" s="12">
+        <v>-3.1799999999999998E-4</v>
+      </c>
+      <c r="I168" s="9" t="e">
+        <f t="shared" ref="I168:I206" si="4">VLOOKUP(G168,$A$77:$A$113,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J168" s="9" t="e">
+        <f t="shared" ref="J168:J206" si="5">VLOOKUP(G168,$A$3:$A$36,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K168" s="9" t="e">
+        <f t="shared" ref="K168:K206" si="6">VLOOKUP(G168,$G$79:$G$92,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L168" s="9" t="str">
+        <f t="shared" ref="L168:L206" si="7">VLOOKUP(G168,$G$3:$G$75,1,0)</f>
+        <v>Transporte rodoviário de passageiros</v>
+      </c>
+    </row>
+    <row r="169" spans="7:12" ht="90" x14ac:dyDescent="0.2">
+      <c r="G169" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="H169" s="12">
+        <v>-3.4600000000000001E-4</v>
+      </c>
+      <c r="I169" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J169" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K169" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L169" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170" spans="7:12" ht="120" x14ac:dyDescent="0.2">
+      <c r="G170" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="H170" s="12">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="I170" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J170" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K170" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L170" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171" spans="7:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="G171" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H171" s="12">
+        <v>-4.2900000000000002E-4</v>
+      </c>
+      <c r="I171" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J171" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>Comércio varejista de equipamentos de informática e comunicação</v>
+      </c>
+      <c r="K171" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L171" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Comércio varejista de equipamentos de informática e comunicação</v>
+      </c>
+    </row>
+    <row r="172" spans="7:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G172" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H172" s="12">
+        <v>-4.8099999999999998E-4</v>
+      </c>
+      <c r="I172" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>Alimentos e Bebidas</v>
+      </c>
+      <c r="J172" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K172" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L172" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Alimentos e Bebidas</v>
+      </c>
+    </row>
+    <row r="173" spans="7:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G173" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H173" s="12">
+        <v>-5.53E-4</v>
+      </c>
+      <c r="I173" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J173" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>Construção de edifícios</v>
+      </c>
+      <c r="K173" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L173" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Construção de edifícios</v>
+      </c>
+    </row>
+    <row r="174" spans="7:12" ht="75" x14ac:dyDescent="0.2">
+      <c r="G174" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H174" s="12">
+        <v>-5.62E-4</v>
+      </c>
+      <c r="I174" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J174" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>Comércio varejista de produtos novos não especificados anteriormente e de produtos usados</v>
+      </c>
+      <c r="K174" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L174" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="175" spans="7:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="G175" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H175" s="12">
+        <v>-6.0899999999999995E-4</v>
+      </c>
+      <c r="I175" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J175" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K175" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L175" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Restaurantes e outros serviços de alimentação e bebidas</v>
+      </c>
+    </row>
+    <row r="176" spans="7:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G176" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H176" s="12">
+        <v>-7.3999999999999999E-4</v>
+      </c>
+      <c r="I176" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>Adm Técnica Profissional</v>
+      </c>
+      <c r="J176" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K176" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>Adm Técnica Profissional</v>
+      </c>
+      <c r="L176" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="7:12" ht="75" x14ac:dyDescent="0.2">
+      <c r="G177" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H177" s="12">
+        <v>-8.3600000000000005E-4</v>
+      </c>
+      <c r="I177" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J177" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K177" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L177" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G178" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H178" s="12">
+        <v>-9.2500000000000004E-4</v>
+      </c>
+      <c r="I178" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>65 OU MAIS</v>
+      </c>
+      <c r="J178" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K178" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>65 OU MAIS</v>
+      </c>
+      <c r="L178" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>65 OU MAIS</v>
+      </c>
+    </row>
+    <row r="179" spans="7:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G179" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H179" s="12">
+        <v>-9.6199999999999996E-4</v>
+      </c>
+      <c r="I179" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J179" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K179" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L179" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Atividades de limpeza</v>
+      </c>
+    </row>
+    <row r="180" spans="7:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G180" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H180" s="12">
+        <v>-9.9299999999999996E-4</v>
+      </c>
+      <c r="I180" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>Comércio Atacadista</v>
+      </c>
+      <c r="J180" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K180" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L180" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Comércio Atacadista</v>
+      </c>
+    </row>
+    <row r="181" spans="7:12" ht="75" x14ac:dyDescent="0.2">
+      <c r="G181" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H181" s="12">
+        <v>-9.9700000000000006E-4</v>
+      </c>
+      <c r="I181" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J181" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>Atividades de organizações associativas não especificadas anteriormente</v>
+      </c>
+      <c r="K181" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L181" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="7:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="G182" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H182" s="12">
+        <v>-1.0269999999999999E-3</v>
+      </c>
+      <c r="I182" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J182" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K182" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L182" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Serviços de assistência social sem alojamento</v>
+      </c>
+    </row>
+    <row r="183" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G183" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H183" s="12">
+        <v>-1.0330000000000001E-3</v>
+      </c>
+      <c r="I183" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>30 A 39</v>
+      </c>
+      <c r="J183" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>30 A 39</v>
+      </c>
+      <c r="K183" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>30 A 39</v>
+      </c>
+      <c r="L183" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>30 A 39</v>
+      </c>
+    </row>
+    <row r="184" spans="7:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="G184" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H184" s="12">
+        <v>-1.224E-3</v>
+      </c>
+      <c r="I184" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J184" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K184" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L184" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Atividades de associações de defesa de direitos sociais</v>
+      </c>
+    </row>
+    <row r="185" spans="7:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="G185" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H185" s="12">
+        <v>-1.4189999999999999E-3</v>
+      </c>
+      <c r="I185" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>Atividades de atendimento hospitalar</v>
+      </c>
+      <c r="J185" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K185" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L185" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="186" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G186" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H186" s="12">
+        <v>-1.475E-3</v>
+      </c>
+      <c r="I186" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J186" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K186" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L186" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Construção Civil</v>
+      </c>
+    </row>
+    <row r="187" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G187" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H187" s="12">
+        <v>-1.5039999999999999E-3</v>
+      </c>
+      <c r="I187" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>Ensino médio</v>
+      </c>
+      <c r="J187" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K187" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L187" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="188" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G188" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H188" s="12">
+        <v>-1.768E-3</v>
+      </c>
+      <c r="I188" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>Estatutário RGPS</v>
+      </c>
+      <c r="J188" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K188" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L188" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Estatutário RGPS</v>
+      </c>
+    </row>
+    <row r="189" spans="7:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G189" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H189" s="12">
+        <v>-2.0270000000000002E-3</v>
+      </c>
+      <c r="I189" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J189" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>Atividades esportivas</v>
+      </c>
+      <c r="K189" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L189" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Atividades esportivas</v>
+      </c>
+    </row>
+    <row r="190" spans="7:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G190" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H190" s="12">
+        <v>-2.1489999999999999E-3</v>
+      </c>
+      <c r="I190" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>Transporte e Comunicações</v>
+      </c>
+      <c r="J190" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K190" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L190" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Transporte e Comunicações</v>
+      </c>
+    </row>
+    <row r="191" spans="7:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G191" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H191" s="12">
+        <v>-2.4559999999999998E-3</v>
+      </c>
+      <c r="I191" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>Superior Incompleto</v>
+      </c>
+      <c r="J191" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K191" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L191" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Superior Incompleto</v>
+      </c>
+    </row>
+    <row r="192" spans="7:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G192" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H192" s="12">
+        <v>-2.513E-3</v>
+      </c>
+      <c r="I192" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>Outras atividades de ensino</v>
+      </c>
+      <c r="J192" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K192" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L192" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Outras atividades de ensino</v>
+      </c>
+    </row>
+    <row r="193" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G193" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H193" s="12">
+        <v>-2.6069999999999999E-3</v>
+      </c>
+      <c r="I193" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>25 A 29</v>
+      </c>
+      <c r="J193" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>25 A 29</v>
+      </c>
+      <c r="K193" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>25 A 29</v>
+      </c>
+      <c r="L193" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>25 A 29</v>
+      </c>
+    </row>
+    <row r="194" spans="7:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G194" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H194" s="12">
+        <v>-3.3470000000000001E-3</v>
+      </c>
+      <c r="I194" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J194" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K194" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>6ª a 9ª Fundamental</v>
+      </c>
+      <c r="L194" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>6ª a 9ª Fundamental</v>
+      </c>
+    </row>
+    <row r="195" spans="7:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="G195" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H195" s="12">
+        <v>-3.7209999999999999E-3</v>
+      </c>
+      <c r="I195" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J195" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K195" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L195" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Educação infantil e ensino fundamental</v>
+      </c>
+    </row>
+    <row r="196" spans="7:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G196" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H196" s="12">
+        <v>-5.2090000000000001E-3</v>
+      </c>
+      <c r="I196" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J196" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K196" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L196" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Comércio varejista não-especializado</v>
+      </c>
+    </row>
+    <row r="197" spans="7:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G197" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H197" s="12">
+        <v>-5.7109999999999999E-3</v>
+      </c>
+      <c r="I197" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J197" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>Fundamental Completo</v>
+      </c>
+      <c r="K197" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>Fundamental Completo</v>
+      </c>
+      <c r="L197" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Fundamental Completo</v>
+      </c>
+    </row>
+    <row r="198" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G198" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H198" s="12">
+        <v>-5.9550000000000002E-3</v>
+      </c>
+      <c r="I198" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>Ensino</v>
+      </c>
+      <c r="J198" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>Ensino</v>
+      </c>
+      <c r="K198" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L198" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Ensino</v>
+      </c>
+    </row>
+    <row r="199" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G199" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H199" s="12">
+        <v>-7.8619999999999992E-3</v>
+      </c>
+      <c r="I199" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>Comércio Varejista</v>
+      </c>
+      <c r="J199" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K199" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>Comércio Varejista</v>
+      </c>
+      <c r="L199" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Comércio Varejista</v>
+      </c>
+    </row>
+    <row r="200" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G200" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H200" s="12">
+        <v>-9.6670000000000002E-3</v>
+      </c>
+      <c r="I200" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>18 A 24</v>
+      </c>
+      <c r="J200" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>18 A 24</v>
+      </c>
+      <c r="K200" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L200" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>18 A 24</v>
+      </c>
+    </row>
+    <row r="201" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G201" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H201" s="12">
+        <v>-1.0548999999999999E-2</v>
+      </c>
+      <c r="I201" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>Médio Completo</v>
+      </c>
+      <c r="J201" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>Médio Completo</v>
+      </c>
+      <c r="K201" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>Médio Completo</v>
+      </c>
+      <c r="L201" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="202" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G202" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H202" s="12">
+        <v>-1.2527E-2</v>
+      </c>
+      <c r="I202" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>CLT U/ PJ Ind</v>
+      </c>
+      <c r="J202" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>CLT U/ PJ Ind</v>
+      </c>
+      <c r="K202" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L202" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>CLT U/ PJ Ind</v>
+      </c>
+    </row>
+    <row r="203" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G203" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H203" s="12">
+        <v>-1.4127000000000001E-2</v>
+      </c>
+      <c r="I203" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>Aloj Comunic</v>
+      </c>
+      <c r="J203" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>Aloj Comunic</v>
+      </c>
+      <c r="K203" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L203" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Aloj Comunic</v>
+      </c>
+    </row>
+    <row r="204" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G204" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H204" s="12">
+        <v>-1.6223000000000001E-2</v>
+      </c>
+      <c r="I204" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J204" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>15 A 17</v>
+      </c>
+      <c r="K204" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L204" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>15 A 17</v>
+      </c>
+    </row>
+    <row r="205" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G205" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H205" s="12">
+        <v>-1.9217000000000001E-2</v>
+      </c>
+      <c r="I205" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J205" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K205" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L205" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Médio Incompleto</v>
+      </c>
+    </row>
+    <row r="206" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G206" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H206" s="12">
+        <v>-2.7116999999999999E-2</v>
+      </c>
+      <c r="I206" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J206" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>Aprendiz</v>
+      </c>
+      <c r="K206" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L206" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -2402,6 +5749,6123 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F69416-3877-8940-BDF1-356F6AE75DE0}">
+  <dimension ref="A1:P106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61.83203125" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" t="s">
+        <v>327</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>1.3981E-2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>330</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="P2" s="12">
+        <v>5.5061439999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>1.3854999999999999E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="P3" s="12">
+        <v>2.0398079999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>7.9419999999999994E-3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>317.15804000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>5.9849999999999999E-3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="12">
+        <v>179.50314900000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>2.993E-3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="12">
+        <v>382.30934300000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="90" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>2.941E-3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="P7" s="12">
+        <v>976.65481799999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>2.7569999999999999E-3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="12">
+        <v>128.882668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1.505E-3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="12">
+        <v>1719.4698960000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="90" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10">
+        <v>1.2650000000000001E-3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="12">
+        <v>685.73985000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="150" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>1.2110000000000001E-3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="P11" s="12">
+        <v>964.33870100000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="120" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>9.2299999999999999E-4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="12">
+        <v>3073.861719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>7.76E-4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="12">
+        <v>100.99660900000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14">
+        <v>7.1199999999999996E-4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="12">
+        <v>65.475374000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="90" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15">
+        <v>6.2E-4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="P15" s="12">
+        <v>306.49282099999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="90" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>5.6499999999999996E-4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="P16" s="12">
+        <v>36.394767000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>4.4900000000000002E-4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="12">
+        <v>197.783288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18">
+        <v>4.06E-4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="12">
+        <v>325.22206399999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="12">
+        <v>265.00683800000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="90" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20">
+        <v>1.7200000000000001E-4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" s="12">
+        <v>174.10765599999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="90" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>1.6899999999999999E-4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="P21" s="12">
+        <v>297.01521700000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="90" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>1.54E-4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="12">
+        <v>14.210198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23">
+        <v>1.4899999999999999E-4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" s="12">
+        <v>48.714319000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="90" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="P24" s="12">
+        <v>31.879481999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>71</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="12">
+        <v>32.342030999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="90" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>8.2999999999999998E-5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="12">
+        <v>76.474366000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27">
+        <v>6.3E-5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="12">
+        <v>11956.725501000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28">
+        <v>5.8E-5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>73</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="12">
+        <v>4230.8594320000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29">
+        <v>5.1999999999999997E-5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="12">
+        <v>30469.496799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="12">
+        <v>15.441903999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P31" s="12">
+        <v>41.795952</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" s="12">
+        <v>1124.5675570000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" s="12">
+        <v>7061.1509859999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>77</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" s="12">
+        <v>40.156672999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35">
+        <v>-3.0000000000000001E-6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" s="12">
+        <v>2295.7980010000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36">
+        <v>-5.0000000000000004E-6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>72</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" s="12">
+        <v>4209.7064810000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>315</v>
+      </c>
+      <c r="B37">
+        <v>-2.0999999999999999E-5</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" s="12">
+        <v>8476.7344950000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="90" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>-2.6999999999999999E-5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="P38" s="12">
+        <v>16.434242000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39">
+        <v>-3.8999999999999999E-5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>69</v>
+      </c>
+      <c r="O39" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P39" s="12">
+        <v>31.150092999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40">
+        <v>-4.1E-5</v>
+      </c>
+      <c r="F40" t="s">
+        <v>76</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P40" s="12">
+        <v>1124.099473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>316</v>
+      </c>
+      <c r="B41">
+        <v>-4.8999999999999998E-5</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P41" s="12">
+        <v>8.8918330000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>-5.7000000000000003E-5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="P42" s="12">
+        <v>4.3554120000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43">
+        <v>-6.0999999999999999E-5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>89</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P43" s="12">
+        <v>39.263592000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44">
+        <v>-7.2999999999999999E-5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>99</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" s="12">
+        <v>32.346888999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="135" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>317</v>
+      </c>
+      <c r="B45">
+        <v>-7.3999999999999996E-5</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="P45" s="12">
+        <v>98.939102000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46">
+        <v>-7.4999999999999993E-5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>68</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P46" s="12">
+        <v>425.96525800000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47">
+        <v>-1.01E-4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>96</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" s="12">
+        <v>326.72571199999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="105" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>318</v>
+      </c>
+      <c r="B48">
+        <v>-1.02E-4</v>
+      </c>
+      <c r="O48" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="P48" s="12">
+        <v>916.26765</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>319</v>
+      </c>
+      <c r="B49">
+        <v>-1.1E-4</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P49" s="12">
+        <v>1044.5762790000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>320</v>
+      </c>
+      <c r="B50">
+        <v>-1.2400000000000001E-4</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50" s="12">
+        <v>378.57436999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51">
+        <v>-1.2899999999999999E-4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>82</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="P51" s="12">
+        <v>1815.1888260000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>321</v>
+      </c>
+      <c r="B52">
+        <v>-1.3100000000000001E-4</v>
+      </c>
+      <c r="O52" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P52" s="12">
+        <v>99.374195999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53">
+        <v>-1.3300000000000001E-4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>91</v>
+      </c>
+      <c r="O53" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P53" s="12">
+        <v>283.00361099999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54">
+        <v>-1.37E-4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>93</v>
+      </c>
+      <c r="O54" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P54" s="12">
+        <v>15.16658</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>-1.4999999999999999E-4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>4</v>
+      </c>
+      <c r="O55" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P55" s="12">
+        <v>35.678871000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56">
+        <v>-1.7699999999999999E-4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>65</v>
+      </c>
+      <c r="O56" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P56" s="12">
+        <v>2104.895145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="105" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57">
+        <v>-1.8599999999999999E-4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>98</v>
+      </c>
+      <c r="O57" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="P57" s="12">
+        <v>122.13243300000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58">
+        <v>-1.95E-4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>95</v>
+      </c>
+      <c r="O58" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P58" s="12">
+        <v>53.726703000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59">
+        <v>-2.2100000000000001E-4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="O59" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P59" s="12">
+        <v>54.182735999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>-2.2499999999999999E-4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2</v>
+      </c>
+      <c r="O60" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P60" s="12">
+        <v>199.293329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61">
+        <v>-2.41E-4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>104</v>
+      </c>
+      <c r="O61" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P61" s="12">
+        <v>1402.442708</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="90" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>-2.4899999999999998E-4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="O62" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P62" s="12">
+        <v>394.55670199999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>-2.5399999999999999E-4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+      <c r="O63" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P63" s="12">
+        <v>1693.425749</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64">
+        <v>-2.5999999999999998E-4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>97</v>
+      </c>
+      <c r="O64" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P64" s="12">
+        <v>184.579748</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65">
+        <v>-2.6800000000000001E-4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="O65" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P65" s="12">
+        <v>111.968155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>-3.1300000000000002E-4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P66" s="12">
+        <v>94.136202999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67">
+        <v>-3.1799999999999998E-4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>75</v>
+      </c>
+      <c r="O67" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P67" s="12">
+        <v>201.12834799999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>322</v>
+      </c>
+      <c r="B68">
+        <v>-3.4600000000000001E-4</v>
+      </c>
+      <c r="O68" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="P68" s="12">
+        <v>36.900098999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>323</v>
+      </c>
+      <c r="B69">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="O69" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P69" s="12">
+        <v>109.54863899999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>-4.2900000000000002E-4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+      <c r="O70" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P70" s="12">
+        <v>503.93360100000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71">
+        <v>-4.8099999999999998E-4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s">
+        <v>41</v>
+      </c>
+      <c r="O71" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P71" s="12">
+        <v>97.481874000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>-5.53E-4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1</v>
+      </c>
+      <c r="O72" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P72" s="12">
+        <v>1322.386878</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>-5.62E-4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="O73" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P73" s="12">
+        <v>397.81119799999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>-6.0899999999999995E-4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>79</v>
+      </c>
+      <c r="O74" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P74" s="12">
+        <v>1437.363192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75">
+        <v>-7.3999999999999999E-4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" t="s">
+        <v>45</v>
+      </c>
+      <c r="O75" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P75" s="12">
+        <v>36642.050627999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>324</v>
+      </c>
+      <c r="B76">
+        <v>-8.3600000000000005E-4</v>
+      </c>
+      <c r="O76" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P76" s="12">
+        <v>4758.0251189999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77">
+        <v>-9.2500000000000004E-4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" t="s">
+        <v>55</v>
+      </c>
+      <c r="F77" t="s">
+        <v>55</v>
+      </c>
+      <c r="O77" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P77" s="12">
+        <v>1474.570467</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>-9.6199999999999996E-4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>83</v>
+      </c>
+      <c r="O78" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P78" s="12">
+        <v>2276.88472</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79">
+        <v>-9.9299999999999996E-4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>43</v>
+      </c>
+      <c r="O79" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="P79" s="12">
+        <v>19.474651999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80">
+        <v>-9.9700000000000006E-4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="O80" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="P80" s="12">
+        <v>89.557986</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>-1.0269999999999999E-3</v>
+      </c>
+      <c r="F81" t="s">
+        <v>86</v>
+      </c>
+      <c r="O81" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P81" s="12">
+        <v>448.52780899999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82">
+        <v>-1.0330000000000001E-3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" t="s">
+        <v>28</v>
+      </c>
+      <c r="O82" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P82" s="12">
+        <v>105.225458</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83">
+        <v>-1.224E-3</v>
+      </c>
+      <c r="F83" t="s">
+        <v>87</v>
+      </c>
+      <c r="O83" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P83" s="12">
+        <v>9.7149009999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84">
+        <v>-1.4189999999999999E-3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>38</v>
+      </c>
+      <c r="O84" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="P84" s="12">
+        <v>64.559223000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85">
+        <v>-1.475E-3</v>
+      </c>
+      <c r="F85" t="s">
+        <v>94</v>
+      </c>
+      <c r="O85" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P85" s="12">
+        <v>5.8670200000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86">
+        <v>-1.5039999999999999E-3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>35</v>
+      </c>
+      <c r="O86" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P86" s="12">
+        <v>1095.160365</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87">
+        <v>-1.768E-3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
+      <c r="F87" t="s">
+        <v>49</v>
+      </c>
+      <c r="O87" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P87" s="12">
+        <v>1243.888355</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88">
+        <v>-2.0270000000000002E-3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>15</v>
+      </c>
+      <c r="O88" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P88" s="12">
+        <v>226.638454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89">
+        <v>-2.1489999999999999E-3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F89" t="s">
+        <v>46</v>
+      </c>
+      <c r="O89" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P89" s="12">
+        <v>2945.5010379999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90">
+        <v>-2.4559999999999998E-3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>50</v>
+      </c>
+      <c r="F90" t="s">
+        <v>50</v>
+      </c>
+      <c r="O90" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="P90" s="12">
+        <v>1283.4463129999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91">
+        <v>-2.513E-3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" t="s">
+        <v>37</v>
+      </c>
+      <c r="O91" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P91" s="12">
+        <v>129.409414</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92">
+        <v>-2.6069999999999999E-3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92" t="s">
+        <v>27</v>
+      </c>
+      <c r="O92" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P92" s="12">
+        <v>8.6623800000000006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93">
+        <v>-3.3470000000000001E-3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>100</v>
+      </c>
+      <c r="F93" t="s">
+        <v>100</v>
+      </c>
+      <c r="O93" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P93" s="12">
+        <v>941.79261799999995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94">
+        <v>-3.7209999999999999E-3</v>
+      </c>
+      <c r="F94" t="s">
+        <v>85</v>
+      </c>
+      <c r="O94" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P94" s="12">
+        <v>2617.304811</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>74</v>
+      </c>
+      <c r="B95">
+        <v>-5.2090000000000001E-3</v>
+      </c>
+      <c r="F95" t="s">
+        <v>74</v>
+      </c>
+      <c r="O95" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="P95" s="12">
+        <v>209.907106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96">
+        <v>-5.7109999999999999E-3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+      <c r="O96" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P96" s="12">
+        <v>50.551251000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97">
+        <v>-5.9550000000000002E-3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" t="s">
+        <v>19</v>
+      </c>
+      <c r="O97" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P97" s="12">
+        <v>515.07122100000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>42</v>
+      </c>
+      <c r="B98">
+        <v>-7.8619999999999992E-3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>42</v>
+      </c>
+      <c r="E98" t="s">
+        <v>42</v>
+      </c>
+      <c r="F98" t="s">
+        <v>42</v>
+      </c>
+      <c r="O98" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P98" s="12">
+        <v>1305.2993019999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99">
+        <v>-9.6670000000000002E-3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" t="s">
+        <v>26</v>
+      </c>
+      <c r="O99" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P99" s="12">
+        <v>3.997655</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100">
+        <v>-1.0548999999999999E-2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" t="s">
+        <v>24</v>
+      </c>
+      <c r="O100" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P100" s="12">
+        <v>104.570025</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101">
+        <v>-1.2527E-2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" t="s">
+        <v>20</v>
+      </c>
+      <c r="O101" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P101" s="12">
+        <v>51.014465999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102">
+        <v>-1.4127000000000001E-2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" t="s">
+        <v>18</v>
+      </c>
+      <c r="O102" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P102" s="12">
+        <v>3.029668</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103">
+        <v>-1.6223000000000001E-2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" t="s">
+        <v>25</v>
+      </c>
+      <c r="O103" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P103" s="12">
+        <v>9.1541910000000009</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104">
+        <v>-1.9217000000000001E-2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>101</v>
+      </c>
+      <c r="O104" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P104" s="12">
+        <v>1099.6476210000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>22</v>
+      </c>
+      <c r="B105">
+        <v>-2.7116999999999999E-2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>22</v>
+      </c>
+      <c r="O105" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P105" s="12">
+        <v>20.651430000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O106" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" s="12">
+        <v>28.456389999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47DC4C5-C8A7-6C45-B595-239E35E96C80}">
+  <dimension ref="A1:C378"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>341</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.61815399999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>250</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.12793599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>123</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="12">
+        <v>8.7481000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>324</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="12">
+        <v>5.3976000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>198</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="12">
+        <v>3.2323999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>342</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2.7082999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>343</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2.1632999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>309</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1.1006999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>56</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1.0272999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>55</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1.0133E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>249</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>254</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>253</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>252</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>251</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>247</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>248</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>256</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>246</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>245</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>244</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>243</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>242</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>241</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>240</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>255</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>0</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>238</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>257</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>278</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>277</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>276</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>275</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>274</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>273</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>272</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>271</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>270</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>269</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>268</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
+        <v>267</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
+        <v>266</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="165" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
+        <v>265</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
+        <v>264</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
+        <v>263</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
+        <v>262</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
+        <v>261</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
+        <v>260</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
+        <v>259</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
+        <v>258</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A52" s="11">
+        <v>239</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
+        <v>236</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A54" s="11">
+        <v>237</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A55" s="11">
+        <v>203</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
+        <v>212</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
+        <v>211</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
+        <v>210</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
+        <v>209</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
+        <v>208</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="C60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
+        <v>207</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A62" s="11">
+        <v>206</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A63" s="11">
+        <v>205</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A64" s="11">
+        <v>204</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A65" s="11">
+        <v>202</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C65" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A66" s="11">
+        <v>280</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A67" s="11">
+        <v>201</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C67" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A68" s="11">
+        <v>200</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C68" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A69" s="11">
+        <v>199</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A70" s="11">
+        <v>197</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C70" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A71" s="11">
+        <v>196</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C71" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A72" s="11">
+        <v>195</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C72" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A73" s="11">
+        <v>194</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A74" s="11">
+        <v>193</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A75" s="11">
+        <v>192</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="C75" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A76" s="11">
+        <v>213</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C76" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A77" s="11">
+        <v>214</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C77" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A78" s="11">
+        <v>215</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C78" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A79" s="11">
+        <v>216</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C79" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A80" s="11">
+        <v>235</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C80" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A81" s="11">
+        <v>234</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C81" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A82" s="11">
+        <v>233</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A83" s="11">
+        <v>232</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C83" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A84" s="11">
+        <v>231</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C84" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A85" s="11">
+        <v>230</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C85" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A86" s="11">
+        <v>229</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A87" s="11">
+        <v>228</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C87" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A88" s="11">
+        <v>227</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C88" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A89" s="11">
+        <v>226</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C89" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A90" s="11">
+        <v>225</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C90" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A91" s="11">
+        <v>224</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C91" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="11">
+        <v>223</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C92" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A93" s="11">
+        <v>222</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C93" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A94" s="11">
+        <v>221</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C94" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A95" s="11">
+        <v>220</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C95" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A96" s="11">
+        <v>219</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C96" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A97" s="11">
+        <v>218</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C97" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A98" s="11">
+        <v>217</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C98" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A99" s="11">
+        <v>279</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A100" s="11">
+        <v>284</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C100" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A101" s="11">
+        <v>281</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="C101" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A102" s="11">
+        <v>354</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C102" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A103" s="11">
+        <v>352</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C103" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A104" s="11">
+        <v>351</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="C104" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A105" s="11">
+        <v>350</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C105" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A106" s="11">
+        <v>349</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C106" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="11">
+        <v>348</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C107" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="11">
+        <v>347</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="11">
+        <v>346</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C109" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="11">
+        <v>345</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C110" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="11">
+        <v>344</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="11">
+        <v>340</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C112" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="11">
+        <v>339</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C113" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="11">
+        <v>338</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A115" s="11">
+        <v>337</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A116" s="11">
+        <v>336</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C116" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A117" s="11">
+        <v>335</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A118" s="11">
+        <v>334</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C118" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A119" s="11">
+        <v>333</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A120" s="11">
+        <v>332</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C120" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A121" s="11">
+        <v>331</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C121" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A122" s="11">
+        <v>353</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C122" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A123" s="11">
+        <v>355</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C123" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="11">
+        <v>329</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C124" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A125" s="11">
+        <v>356</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C125" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A126" s="11">
+        <v>375</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="C126" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A127" s="11">
+        <v>374</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C127" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A128" s="11">
+        <v>373</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C128" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A129" s="11">
+        <v>372</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C129" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A130" s="11">
+        <v>371</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C130" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A131" s="11">
+        <v>370</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C131" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A132" s="11">
+        <v>369</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="C132" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A133" s="11">
+        <v>368</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C133" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A134" s="11">
+        <v>367</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C134" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A135" s="11">
+        <v>366</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C135" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A136" s="11">
+        <v>365</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="C136" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A137" s="11">
+        <v>364</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C137" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A138" s="11">
+        <v>363</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C138" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A139" s="11">
+        <v>362</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C139" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A140" s="11">
+        <v>361</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C140" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A141" s="11">
+        <v>360</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C141" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A142" s="11">
+        <v>359</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C142" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A143" s="11">
+        <v>358</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C143" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A144" s="11">
+        <v>357</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C144" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A145" s="11">
+        <v>330</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C145" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>328</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="C146" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="11">
+        <v>282</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C147" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A148" s="11">
+        <v>303</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A149" s="11">
+        <v>301</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C149" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A150" s="11">
+        <v>300</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C150" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A151" s="11">
+        <v>299</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C151" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A152" s="11">
+        <v>298</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="C152" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A153" s="11">
+        <v>297</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C153" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A154" s="11">
+        <v>296</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="C154" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="11">
+        <v>295</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C155" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A156" s="11">
+        <v>294</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C156" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A157" s="11">
+        <v>293</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C157" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="11">
+        <v>292</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C158" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A159" s="11">
+        <v>291</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C159" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A160" s="11">
+        <v>290</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C160" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A161" s="11">
+        <v>289</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="C161" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A162" s="11">
+        <v>288</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C162" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A163" s="11">
+        <v>287</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C163" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A164" s="11">
+        <v>286</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C164" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A165" s="11">
+        <v>285</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C165" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A166" s="11">
+        <v>190</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C166" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A167" s="11">
+        <v>283</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C167" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A168" s="11">
+        <v>302</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C168" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A169" s="11">
+        <v>304</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C169" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A170" s="11">
+        <v>327</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C170" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="11">
+        <v>305</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A172" s="11">
+        <v>326</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C172" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A173" s="11">
+        <v>325</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C173" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A174" s="11">
+        <v>323</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C174" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A175" s="11">
+        <v>322</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C175" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A176" s="11">
+        <v>321</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C176" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A177" s="11">
+        <v>320</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C177" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="11">
+        <v>319</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="11">
+        <v>318</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C179" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="11">
+        <v>317</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C180" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A181" s="11">
+        <v>316</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A182" s="11">
+        <v>315</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C182" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="11">
+        <v>314</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C183" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="11">
+        <v>313</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C184" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="11">
+        <v>312</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C185" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="11">
+        <v>311</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C186" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="11">
+        <v>310</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C187" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A188" s="11">
+        <v>308</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C188" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="11">
+        <v>307</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C189" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A190" s="11">
+        <v>306</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C190" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A191" s="11">
+        <v>191</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="C191" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A192" s="11">
+        <v>188</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C192" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A193" s="11">
+        <v>189</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C193" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="150" x14ac:dyDescent="0.2">
+      <c r="A194" s="11">
+        <v>61</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C194" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A195" s="11">
+        <v>70</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C195" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A196" s="11">
+        <v>69</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C196" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A197" s="11">
+        <v>68</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C197" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A198" s="11">
+        <v>67</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C198" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A199" s="11">
+        <v>66</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="C199" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A200" s="11">
+        <v>65</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C200" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A201" s="11">
+        <v>64</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C201" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A202" s="11">
+        <v>63</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="C202" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A203" s="11">
+        <v>62</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C203" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A204" s="11">
+        <v>60</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="C204" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A205" s="11">
+        <v>47</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C205" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A206" s="11">
+        <v>59</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C206" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A207" s="11">
+        <v>58</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C207" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A208" s="11">
+        <v>57</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C208" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A209" s="11">
+        <v>54</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C209" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="11">
+        <v>53</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="C210" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A211" s="11">
+        <v>52</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="C211" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A212" s="11">
+        <v>51</v>
+      </c>
+      <c r="B212" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="C212" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A213" s="11">
+        <v>50</v>
+      </c>
+      <c r="B213" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="C213" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A214" s="11">
+        <v>49</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C214" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A215" s="11">
+        <v>71</v>
+      </c>
+      <c r="B215" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C215" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A216" s="11">
+        <v>72</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C216" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A217" s="11">
+        <v>73</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="C217" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="11">
+        <v>74</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="C218" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A219" s="11">
+        <v>93</v>
+      </c>
+      <c r="B219" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="C219" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A220" s="11">
+        <v>92</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="C220" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A221" s="11">
+        <v>91</v>
+      </c>
+      <c r="B221" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C221" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A222" s="11">
+        <v>90</v>
+      </c>
+      <c r="B222" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C222" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A223" s="11">
+        <v>89</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C223" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A224" s="11">
+        <v>88</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="C224" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A225" s="11">
+        <v>87</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C225" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A226" s="11">
+        <v>86</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C226" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A227" s="11">
+        <v>85</v>
+      </c>
+      <c r="B227" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="C227" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A228" s="11">
+        <v>84</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="C228" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A229" s="11">
+        <v>83</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="C229" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A230" s="11">
+        <v>82</v>
+      </c>
+      <c r="B230" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="C230" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A231" s="11">
+        <v>81</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C231" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A232" s="11">
+        <v>80</v>
+      </c>
+      <c r="B232" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C232" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A233" s="11">
+        <v>79</v>
+      </c>
+      <c r="B233" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="C233" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A234" s="11">
+        <v>78</v>
+      </c>
+      <c r="B234" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="C234" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="11">
+        <v>77</v>
+      </c>
+      <c r="B235" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="C235" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A236" s="11">
+        <v>76</v>
+      </c>
+      <c r="B236" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="C236" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A237" s="11">
+        <v>75</v>
+      </c>
+      <c r="B237" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="C237" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A238" s="11">
+        <v>48</v>
+      </c>
+      <c r="B238" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="C238" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A239" s="11">
+        <v>46</v>
+      </c>
+      <c r="B239" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="C239" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A240" s="11">
+        <v>1</v>
+      </c>
+      <c r="B240" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="C240" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A241" s="11">
+        <v>12</v>
+      </c>
+      <c r="B241" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="C241" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A242" s="11">
+        <v>21</v>
+      </c>
+      <c r="B242" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="C242" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A243" s="11">
+        <v>20</v>
+      </c>
+      <c r="B243" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C243" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A244" s="11">
+        <v>19</v>
+      </c>
+      <c r="B244" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C244" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A245" s="11">
+        <v>18</v>
+      </c>
+      <c r="B245" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="C245" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A246" s="11">
+        <v>17</v>
+      </c>
+      <c r="B246" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="C246" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A247" s="11">
+        <v>16</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="C247" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A248" s="11">
+        <v>15</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="C248" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A249" s="11">
+        <v>14</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C249" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A250" s="11">
+        <v>13</v>
+      </c>
+      <c r="B250" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="C250" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="11">
+        <v>11</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="C251" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A252" s="11">
+        <v>45</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C252" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="11">
+        <v>10</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="C253" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A254" s="11">
+        <v>9</v>
+      </c>
+      <c r="B254" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="C254" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A255" s="11">
+        <v>8</v>
+      </c>
+      <c r="B255" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C255" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A256" s="11">
+        <v>7</v>
+      </c>
+      <c r="B256" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C256" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A257" s="11">
+        <v>6</v>
+      </c>
+      <c r="B257" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C257" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A258" s="11">
+        <v>5</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="C258" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="11">
+        <v>4</v>
+      </c>
+      <c r="B259" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C259" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A260" s="11">
+        <v>3</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C260" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A261" s="11">
+        <v>2</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C261" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A262" s="11">
+        <v>22</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C262" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A263" s="11">
+        <v>23</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C263" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="11">
+        <v>24</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="C264" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A265" s="11">
+        <v>25</v>
+      </c>
+      <c r="B265" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C265" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A266" s="11">
+        <v>44</v>
+      </c>
+      <c r="B266" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C266" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A267" s="11">
+        <v>43</v>
+      </c>
+      <c r="B267" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="C267" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A268" s="11">
+        <v>42</v>
+      </c>
+      <c r="B268" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="C268" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A269" s="11">
+        <v>41</v>
+      </c>
+      <c r="B269" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="C269" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A270" s="11">
+        <v>40</v>
+      </c>
+      <c r="B270" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="C270" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A271" s="11">
+        <v>39</v>
+      </c>
+      <c r="B271" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="C271" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A272" s="11">
+        <v>38</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C272" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A273" s="11">
+        <v>37</v>
+      </c>
+      <c r="B273" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="C273" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A274" s="11">
+        <v>36</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="C274" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A275" s="11">
+        <v>35</v>
+      </c>
+      <c r="B275" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="C275" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A276" s="11">
+        <v>34</v>
+      </c>
+      <c r="B276" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="C276" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A277" s="11">
+        <v>33</v>
+      </c>
+      <c r="B277" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="C277" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A278" s="11">
+        <v>32</v>
+      </c>
+      <c r="B278" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="C278" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A279" s="11">
+        <v>31</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C279" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A280" s="11">
+        <v>30</v>
+      </c>
+      <c r="B280" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C280" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A281" s="11">
+        <v>29</v>
+      </c>
+      <c r="B281" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="C281" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A282" s="11">
+        <v>28</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="C282" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A283" s="11">
+        <v>27</v>
+      </c>
+      <c r="B283" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C283" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A284" s="11">
+        <v>26</v>
+      </c>
+      <c r="B284" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C284" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A285" s="11">
+        <v>94</v>
+      </c>
+      <c r="B285" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="C285" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A286" s="11">
+        <v>95</v>
+      </c>
+      <c r="B286" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="C286" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A287" s="11">
+        <v>96</v>
+      </c>
+      <c r="B287" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="C287" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A288" s="11">
+        <v>155</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A289" s="11">
+        <v>164</v>
+      </c>
+      <c r="B289" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="C289" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A290" s="11">
+        <v>163</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C290" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A291" s="11">
+        <v>162</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C291" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A292" s="11">
+        <v>161</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="C292" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A293" s="11">
+        <v>160</v>
+      </c>
+      <c r="B293" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="150" x14ac:dyDescent="0.2">
+      <c r="A294" s="11">
+        <v>159</v>
+      </c>
+      <c r="B294" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C294" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A295" s="11">
+        <v>158</v>
+      </c>
+      <c r="B295" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C295" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A296" s="11">
+        <v>157</v>
+      </c>
+      <c r="B296" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C296" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A297" s="11">
+        <v>156</v>
+      </c>
+      <c r="B297" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A298" s="11">
+        <v>154</v>
+      </c>
+      <c r="B298" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C298" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A299" s="11">
+        <v>97</v>
+      </c>
+      <c r="B299" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="C299" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A300" s="11">
+        <v>153</v>
+      </c>
+      <c r="B300" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C300" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A301" s="11">
+        <v>152</v>
+      </c>
+      <c r="B301" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C301" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A302" s="11">
+        <v>151</v>
+      </c>
+      <c r="B302" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C302" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+      <c r="A303" s="11">
+        <v>150</v>
+      </c>
+      <c r="B303" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="C303" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+      <c r="A304" s="11">
+        <v>149</v>
+      </c>
+      <c r="B304" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="C304" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A305" s="11">
+        <v>148</v>
+      </c>
+      <c r="B305" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="C305" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A306" s="11">
+        <v>147</v>
+      </c>
+      <c r="B306" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C306" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A307" s="11">
+        <v>146</v>
+      </c>
+      <c r="B307" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C307" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A308" s="11">
+        <v>145</v>
+      </c>
+      <c r="B308" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="C308" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A309" s="11">
+        <v>165</v>
+      </c>
+      <c r="B309" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="C309" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A310" s="11">
+        <v>166</v>
+      </c>
+      <c r="B310" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C310" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A311" s="11">
+        <v>167</v>
+      </c>
+      <c r="B311" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="C311" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A312" s="11">
+        <v>168</v>
+      </c>
+      <c r="B312" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C312" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A313" s="11">
+        <v>187</v>
+      </c>
+      <c r="B313" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="C313" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A314" s="11">
+        <v>186</v>
+      </c>
+      <c r="B314" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="C314" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A315" s="11">
+        <v>185</v>
+      </c>
+      <c r="B315" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C315" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A316" s="11">
+        <v>184</v>
+      </c>
+      <c r="B316" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="C316" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A317" s="11">
+        <v>183</v>
+      </c>
+      <c r="B317" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="C317" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A318" s="11">
+        <v>182</v>
+      </c>
+      <c r="B318" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C318" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A319" s="11">
+        <v>181</v>
+      </c>
+      <c r="B319" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="C319" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A320" s="11">
+        <v>180</v>
+      </c>
+      <c r="B320" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A321" s="11">
+        <v>179</v>
+      </c>
+      <c r="B321" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="C321" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A322" s="11">
+        <v>178</v>
+      </c>
+      <c r="B322" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="C322" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A323" s="11">
+        <v>177</v>
+      </c>
+      <c r="B323" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="C323" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A324" s="11">
+        <v>176</v>
+      </c>
+      <c r="B324" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C324" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A325" s="11">
+        <v>175</v>
+      </c>
+      <c r="B325" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C325" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A326" s="11">
+        <v>174</v>
+      </c>
+      <c r="B326" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="C326" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A327" s="11">
+        <v>173</v>
+      </c>
+      <c r="B327" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="C327" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A328" s="11">
+        <v>172</v>
+      </c>
+      <c r="B328" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="C328" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A329" s="11">
+        <v>171</v>
+      </c>
+      <c r="B329" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="C329" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A330" s="11">
+        <v>170</v>
+      </c>
+      <c r="B330" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="C330" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A331" s="11">
+        <v>169</v>
+      </c>
+      <c r="B331" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="C331" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A332" s="11">
+        <v>144</v>
+      </c>
+      <c r="B332" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="C332" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A333" s="11">
+        <v>143</v>
+      </c>
+      <c r="B333" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="C333" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A334" s="11">
+        <v>142</v>
+      </c>
+      <c r="B334" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C334" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A335" s="11">
+        <v>118</v>
+      </c>
+      <c r="B335" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="C335" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A336" s="11">
+        <v>116</v>
+      </c>
+      <c r="B336" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="C336" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A337" s="11">
+        <v>115</v>
+      </c>
+      <c r="B337" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="C337" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A338" s="11">
+        <v>114</v>
+      </c>
+      <c r="B338" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="C338" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A339" s="11">
+        <v>113</v>
+      </c>
+      <c r="B339" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="C339" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A340" s="11">
+        <v>112</v>
+      </c>
+      <c r="B340" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="C340" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A341" s="11">
+        <v>111</v>
+      </c>
+      <c r="B341" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="C341" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A342" s="11">
+        <v>110</v>
+      </c>
+      <c r="B342" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="C342" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A343" s="11">
+        <v>109</v>
+      </c>
+      <c r="B343" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="C343" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A344" s="11">
+        <v>108</v>
+      </c>
+      <c r="B344" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="C344" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A345" s="11">
+        <v>107</v>
+      </c>
+      <c r="B345" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="C345" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A346" s="11">
+        <v>106</v>
+      </c>
+      <c r="B346" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="C346" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A347" s="11">
+        <v>105</v>
+      </c>
+      <c r="B347" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="C347" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A348" s="11">
+        <v>104</v>
+      </c>
+      <c r="B348" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C348" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A349" s="11">
+        <v>103</v>
+      </c>
+      <c r="B349" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="C349" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A350" s="11">
+        <v>102</v>
+      </c>
+      <c r="B350" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="C350" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A351" s="11">
+        <v>101</v>
+      </c>
+      <c r="B351" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="C351" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A352" s="11">
+        <v>100</v>
+      </c>
+      <c r="B352" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="C352" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A353" s="11">
+        <v>99</v>
+      </c>
+      <c r="B353" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="C353" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A354" s="11">
+        <v>98</v>
+      </c>
+      <c r="B354" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="C354" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A355" s="11">
+        <v>117</v>
+      </c>
+      <c r="B355" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="C355" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A356" s="11">
+        <v>119</v>
+      </c>
+      <c r="B356" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="C356" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A357" s="11">
+        <v>141</v>
+      </c>
+      <c r="B357" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C357" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A358" s="11">
+        <v>120</v>
+      </c>
+      <c r="B358" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C358" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A359" s="11">
+        <v>140</v>
+      </c>
+      <c r="B359" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C359" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A360" s="11">
+        <v>139</v>
+      </c>
+      <c r="B360" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="C360" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A361" s="11">
+        <v>138</v>
+      </c>
+      <c r="B361" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C361" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A362" s="11">
+        <v>137</v>
+      </c>
+      <c r="B362" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="C362" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A363" s="11">
+        <v>136</v>
+      </c>
+      <c r="B363" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="C363" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A364" s="11">
+        <v>135</v>
+      </c>
+      <c r="B364" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="C364" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+      <c r="A365" s="11">
+        <v>134</v>
+      </c>
+      <c r="B365" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C365" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A366" s="11">
+        <v>133</v>
+      </c>
+      <c r="B366" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="C366" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A367" s="11">
+        <v>132</v>
+      </c>
+      <c r="B367" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C367" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A368" s="11">
+        <v>131</v>
+      </c>
+      <c r="B368" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C368" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A369" s="11">
+        <v>130</v>
+      </c>
+      <c r="B369" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="C369" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A370" s="11">
+        <v>129</v>
+      </c>
+      <c r="B370" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="C370" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A371" s="11">
+        <v>128</v>
+      </c>
+      <c r="B371" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="C371" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A372" s="11">
+        <v>127</v>
+      </c>
+      <c r="B372" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C372" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A373" s="11">
+        <v>126</v>
+      </c>
+      <c r="B373" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="C373" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A374" s="11">
+        <v>125</v>
+      </c>
+      <c r="B374" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="C374" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A375" s="11">
+        <v>124</v>
+      </c>
+      <c r="B375" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="C375" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A376" s="11">
+        <v>122</v>
+      </c>
+      <c r="B376" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C376" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A377" s="11">
+        <v>121</v>
+      </c>
+      <c r="B377" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="C377" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" s="11">
+        <v>376</v>
+      </c>
+      <c r="B378" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C378" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D05229-4A52-7945-93C8-0F574B3B51B4}">
   <dimension ref="A1:R80"/>
   <sheetViews>
@@ -2895,11 +12359,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C833C57-52CE-E242-A4C3-C5BFF4C7BFD7}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -3241,7 +12705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0607CF3-B2A5-AA4D-AAF7-522B01F63C16}">
   <dimension ref="A1:G30"/>
   <sheetViews>
